--- a/Google Earth Engine/NDWI_zones_hum_buf.xlsx
+++ b/Google Earth Engine/NDWI_zones_hum_buf.xlsx
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71:E93"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117:E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1297,6 @@
         <v>66</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G65" si="0">IF(F2="NA",0,1)</f>
         <v>1</v>
       </c>
       <c r="H2" t="s">
@@ -1339,7 +1338,6 @@
         <v>66</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3" t="s">
@@ -1381,7 +1379,6 @@
         <v>66</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H4" t="s">
@@ -1423,7 +1420,6 @@
         <v>66</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5" t="s">
@@ -1465,7 +1461,6 @@
         <v>66</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6" t="s">
@@ -1507,7 +1502,6 @@
         <v>66</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H7" t="s">
@@ -1549,7 +1543,6 @@
         <v>66</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H8" t="s">
@@ -1591,7 +1584,6 @@
         <v>66</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H9" t="s">
@@ -1633,7 +1625,6 @@
         <v>66</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H10" t="s">
@@ -1675,7 +1666,6 @@
         <v>66</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" t="s">
@@ -1717,7 +1707,6 @@
         <v>66</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H12" t="s">
@@ -1759,7 +1748,6 @@
         <v>66</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" t="s">
@@ -1801,7 +1789,6 @@
         <v>66</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H14" t="s">
@@ -1843,7 +1830,6 @@
         <v>66</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H15" t="s">
@@ -1885,7 +1871,6 @@
         <v>66</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H16" t="s">
@@ -1927,7 +1912,6 @@
         <v>66</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H17" t="s">
@@ -1969,7 +1953,6 @@
         <v>66</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H18" t="s">
@@ -2011,7 +1994,6 @@
         <v>66</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" t="s">
@@ -2053,7 +2035,6 @@
         <v>66</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H20" t="s">
@@ -2095,7 +2076,6 @@
         <v>66</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H21" t="s">
@@ -2137,7 +2117,6 @@
         <v>66</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H22" t="s">
@@ -2179,7 +2158,6 @@
         <v>66</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H23" t="s">
@@ -2221,7 +2199,6 @@
         <v>66</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H24" t="s">
@@ -2263,7 +2240,6 @@
         <v>66</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H25" t="s">
@@ -2305,7 +2281,6 @@
         <v>66</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H26" t="s">
@@ -2347,7 +2322,6 @@
         <v>66</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H27" t="s">
@@ -2389,7 +2363,6 @@
         <v>66</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H28" t="s">
@@ -2431,7 +2404,6 @@
         <v>66</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H29" t="s">
@@ -2473,7 +2445,6 @@
         <v>66</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H30" t="s">
@@ -2515,7 +2486,6 @@
         <v>66</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H31" t="s">
@@ -2557,7 +2527,6 @@
         <v>66</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H32" t="s">
@@ -2599,7 +2568,6 @@
         <v>66</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H33" t="s">
@@ -2641,7 +2609,6 @@
         <v>66</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H34" t="s">
@@ -2683,7 +2650,6 @@
         <v>66</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H35" t="s">
@@ -2725,7 +2691,6 @@
         <v>66</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H36" t="s">
@@ -2767,7 +2732,6 @@
         <v>66</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H37" t="s">
@@ -2809,7 +2773,6 @@
         <v>66</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H38" t="s">
@@ -2851,7 +2814,6 @@
         <v>66</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H39" t="s">
@@ -2893,7 +2855,6 @@
         <v>66</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H40" t="s">
@@ -2935,7 +2896,6 @@
         <v>66</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H41" t="s">
@@ -2977,7 +2937,6 @@
         <v>66</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H42" t="s">
@@ -3019,7 +2978,6 @@
         <v>66</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H43" t="s">
@@ -3061,7 +3019,6 @@
         <v>66</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H44" t="s">
@@ -3103,7 +3060,6 @@
         <v>66</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H45" t="s">
@@ -3145,7 +3101,6 @@
         <v>66</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H46" t="s">
@@ -3187,7 +3142,6 @@
         <v>66</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H47" t="s">
@@ -3229,7 +3183,6 @@
         <v>77</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H48" t="s">
@@ -3271,7 +3224,6 @@
         <v>77</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H49" t="s">
@@ -3313,7 +3265,6 @@
         <v>77</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H50" t="s">
@@ -3355,7 +3306,6 @@
         <v>77</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H51" t="s">
@@ -3397,7 +3347,6 @@
         <v>77</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H52" t="s">
@@ -3439,7 +3388,6 @@
         <v>77</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H53" t="s">
@@ -3481,7 +3429,6 @@
         <v>77</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H54" t="s">
@@ -3523,7 +3470,6 @@
         <v>77</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H55" t="s">
@@ -3565,7 +3511,6 @@
         <v>77</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H56" t="s">
@@ -3607,7 +3552,6 @@
         <v>77</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H57" t="s">
@@ -3649,7 +3593,6 @@
         <v>77</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H58" t="s">
@@ -3691,7 +3634,6 @@
         <v>77</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H59" t="s">
@@ -3733,7 +3675,6 @@
         <v>77</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H60" t="s">
@@ -3775,7 +3716,6 @@
         <v>77</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H61" t="s">
@@ -3817,7 +3757,6 @@
         <v>77</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H62" t="s">
@@ -3859,7 +3798,6 @@
         <v>77</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H63" t="s">
@@ -3901,7 +3839,6 @@
         <v>77</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H64" t="s">
@@ -3943,7 +3880,6 @@
         <v>77</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H65" t="s">
@@ -3985,7 +3921,6 @@
         <v>77</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G129" si="1">IF(F66="NA",0,1)</f>
         <v>0</v>
       </c>
       <c r="H66" t="s">
@@ -4027,7 +3962,6 @@
         <v>77</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H67" t="s">
@@ -4069,7 +4003,6 @@
         <v>77</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H68" t="s">
@@ -4111,7 +4044,6 @@
         <v>77</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H69" t="s">
@@ -4153,7 +4085,6 @@
         <v>77</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H70" t="s">
@@ -4195,7 +4126,6 @@
         <v>77</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H71" t="s">
@@ -4237,7 +4167,6 @@
         <v>77</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H72" t="s">
@@ -4279,7 +4208,6 @@
         <v>77</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H73" t="s">
@@ -4321,7 +4249,6 @@
         <v>77</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H74" t="s">
@@ -4363,7 +4290,6 @@
         <v>77</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H75" t="s">
@@ -4405,7 +4331,6 @@
         <v>77</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H76" t="s">
@@ -4447,7 +4372,6 @@
         <v>77</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H77" t="s">
@@ -4489,7 +4413,6 @@
         <v>77</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H78" t="s">
@@ -4531,7 +4454,6 @@
         <v>77</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H79" t="s">
@@ -4573,7 +4495,6 @@
         <v>77</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H80" t="s">
@@ -4615,7 +4536,6 @@
         <v>77</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H81" t="s">
@@ -4657,7 +4577,6 @@
         <v>77</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H82" t="s">
@@ -4699,7 +4618,6 @@
         <v>77</v>
       </c>
       <c r="G83">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H83" t="s">
@@ -4741,7 +4659,6 @@
         <v>77</v>
       </c>
       <c r="G84">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H84" t="s">
@@ -4783,7 +4700,6 @@
         <v>77</v>
       </c>
       <c r="G85">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H85" t="s">
@@ -4825,7 +4741,6 @@
         <v>77</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H86" t="s">
@@ -4867,7 +4782,6 @@
         <v>77</v>
       </c>
       <c r="G87">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H87" t="s">
@@ -4909,7 +4823,6 @@
         <v>77</v>
       </c>
       <c r="G88">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H88" t="s">
@@ -4951,7 +4864,6 @@
         <v>77</v>
       </c>
       <c r="G89">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H89" t="s">
@@ -4993,7 +4905,6 @@
         <v>77</v>
       </c>
       <c r="G90">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H90" t="s">
@@ -5035,7 +4946,6 @@
         <v>77</v>
       </c>
       <c r="G91">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H91" t="s">
@@ -5077,7 +4987,6 @@
         <v>77</v>
       </c>
       <c r="G92">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H92" t="s">
@@ -5119,7 +5028,6 @@
         <v>77</v>
       </c>
       <c r="G93">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H93" t="s">
@@ -5151,11 +5059,16 @@
       <c r="C94" t="s">
         <v>6</v>
       </c>
+      <c r="D94">
+        <v>1999</v>
+      </c>
+      <c r="E94">
+        <v>-9.6634198602806795E-2</v>
+      </c>
       <c r="F94" t="s">
         <v>77</v>
       </c>
       <c r="G94">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H94" t="s">
@@ -5187,11 +5100,16 @@
       <c r="C95" t="s">
         <v>6</v>
       </c>
+      <c r="D95">
+        <v>2000</v>
+      </c>
+      <c r="E95">
+        <v>-0.102630928489508</v>
+      </c>
       <c r="F95" t="s">
         <v>77</v>
       </c>
       <c r="G95">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H95" t="s">
@@ -5223,11 +5141,16 @@
       <c r="C96" t="s">
         <v>6</v>
       </c>
+      <c r="D96">
+        <v>2001</v>
+      </c>
+      <c r="E96">
+        <v>-0.112380301839494</v>
+      </c>
       <c r="F96" t="s">
         <v>77</v>
       </c>
       <c r="G96">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H96" t="s">
@@ -5259,11 +5182,16 @@
       <c r="C97" t="s">
         <v>6</v>
       </c>
+      <c r="D97">
+        <v>2002</v>
+      </c>
+      <c r="E97">
+        <v>-0.10250792044261101</v>
+      </c>
       <c r="F97" t="s">
         <v>77</v>
       </c>
       <c r="G97">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H97" t="s">
@@ -5295,11 +5223,16 @@
       <c r="C98" t="s">
         <v>6</v>
       </c>
+      <c r="D98">
+        <v>2003</v>
+      </c>
+      <c r="E98">
+        <v>-0.122147946391922</v>
+      </c>
       <c r="F98" t="s">
         <v>77</v>
       </c>
       <c r="G98">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H98" t="s">
@@ -5331,11 +5264,16 @@
       <c r="C99" t="s">
         <v>6</v>
       </c>
+      <c r="D99">
+        <v>2004</v>
+      </c>
+      <c r="E99">
+        <v>-0.112523638304256</v>
+      </c>
       <c r="F99" t="s">
         <v>77</v>
       </c>
       <c r="G99">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H99" t="s">
@@ -5367,11 +5305,16 @@
       <c r="C100" t="s">
         <v>6</v>
       </c>
+      <c r="D100">
+        <v>2005</v>
+      </c>
+      <c r="E100">
+        <v>-0.114405050834937</v>
+      </c>
       <c r="F100" t="s">
         <v>77</v>
       </c>
       <c r="G100">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H100" t="s">
@@ -5403,11 +5346,16 @@
       <c r="C101" t="s">
         <v>6</v>
       </c>
+      <c r="D101">
+        <v>2006</v>
+      </c>
+      <c r="E101">
+        <v>-0.112349202022795</v>
+      </c>
       <c r="F101" t="s">
         <v>77</v>
       </c>
       <c r="G101">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H101" t="s">
@@ -5439,11 +5387,16 @@
       <c r="C102" t="s">
         <v>6</v>
       </c>
+      <c r="D102">
+        <v>2007</v>
+      </c>
+      <c r="E102">
+        <v>-0.10227268507361099</v>
+      </c>
       <c r="F102" t="s">
         <v>77</v>
       </c>
       <c r="G102">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H102" t="s">
@@ -5475,11 +5428,16 @@
       <c r="C103" t="s">
         <v>6</v>
       </c>
+      <c r="D103">
+        <v>2008</v>
+      </c>
+      <c r="E103">
+        <v>-0.114183833329943</v>
+      </c>
       <c r="F103" t="s">
         <v>77</v>
       </c>
       <c r="G103">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H103" t="s">
@@ -5511,11 +5469,16 @@
       <c r="C104" t="s">
         <v>6</v>
       </c>
+      <c r="D104">
+        <v>2009</v>
+      </c>
+      <c r="E104">
+        <v>-0.12018842797085499</v>
+      </c>
       <c r="F104" t="s">
         <v>77</v>
       </c>
       <c r="G104">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H104" t="s">
@@ -5547,11 +5510,16 @@
       <c r="C105" t="s">
         <v>6</v>
       </c>
+      <c r="D105">
+        <v>2010</v>
+      </c>
+      <c r="E105">
+        <v>-0.13178120591644801</v>
+      </c>
       <c r="F105" t="s">
         <v>77</v>
       </c>
       <c r="G105">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H105" t="s">
@@ -5583,11 +5551,16 @@
       <c r="C106" t="s">
         <v>6</v>
       </c>
+      <c r="D106">
+        <v>2011</v>
+      </c>
+      <c r="E106">
+        <v>-0.117982897337508</v>
+      </c>
       <c r="F106" t="s">
         <v>77</v>
       </c>
       <c r="G106">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H106" t="s">
@@ -5619,11 +5592,16 @@
       <c r="C107" t="s">
         <v>6</v>
       </c>
+      <c r="D107">
+        <v>2012</v>
+      </c>
+      <c r="E107">
+        <v>-0.114370554288329</v>
+      </c>
       <c r="F107" t="s">
         <v>77</v>
       </c>
       <c r="G107">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H107" t="s">
@@ -5655,11 +5633,16 @@
       <c r="C108" t="s">
         <v>6</v>
       </c>
+      <c r="D108">
+        <v>2013</v>
+      </c>
+      <c r="E108">
+        <v>-0.116361904016502</v>
+      </c>
       <c r="F108" t="s">
         <v>77</v>
       </c>
       <c r="G108">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H108" t="s">
@@ -5691,11 +5674,16 @@
       <c r="C109" t="s">
         <v>6</v>
       </c>
+      <c r="D109">
+        <v>2014</v>
+      </c>
+      <c r="E109">
+        <v>-0.123846147808823</v>
+      </c>
       <c r="F109" t="s">
         <v>77</v>
       </c>
       <c r="G109">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H109" t="s">
@@ -5727,11 +5715,16 @@
       <c r="C110" t="s">
         <v>6</v>
       </c>
+      <c r="D110">
+        <v>2015</v>
+      </c>
+      <c r="E110">
+        <v>-0.12996472225155101</v>
+      </c>
       <c r="F110" t="s">
         <v>77</v>
       </c>
       <c r="G110">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H110" t="s">
@@ -5763,11 +5756,16 @@
       <c r="C111" t="s">
         <v>6</v>
       </c>
+      <c r="D111">
+        <v>2016</v>
+      </c>
+      <c r="E111">
+        <v>-0.122036220340117</v>
+      </c>
       <c r="F111" t="s">
         <v>77</v>
       </c>
       <c r="G111">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H111" t="s">
@@ -5799,11 +5797,16 @@
       <c r="C112" t="s">
         <v>6</v>
       </c>
+      <c r="D112">
+        <v>2017</v>
+      </c>
+      <c r="E112">
+        <v>-0.121917938025567</v>
+      </c>
       <c r="F112" t="s">
         <v>77</v>
       </c>
       <c r="G112">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H112" t="s">
@@ -5835,11 +5838,16 @@
       <c r="C113" t="s">
         <v>6</v>
       </c>
+      <c r="D113">
+        <v>2018</v>
+      </c>
+      <c r="E113">
+        <v>-0.124145408196326</v>
+      </c>
       <c r="F113" t="s">
         <v>77</v>
       </c>
       <c r="G113">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H113" t="s">
@@ -5871,11 +5879,16 @@
       <c r="C114" t="s">
         <v>6</v>
       </c>
+      <c r="D114">
+        <v>2019</v>
+      </c>
+      <c r="E114">
+        <v>-0.114351346000983</v>
+      </c>
       <c r="F114" t="s">
         <v>77</v>
       </c>
       <c r="G114">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H114" t="s">
@@ -5907,11 +5920,16 @@
       <c r="C115" t="s">
         <v>6</v>
       </c>
+      <c r="D115">
+        <v>2020</v>
+      </c>
+      <c r="E115">
+        <v>-0.112277973188771</v>
+      </c>
       <c r="F115" t="s">
         <v>77</v>
       </c>
       <c r="G115">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H115" t="s">
@@ -5943,11 +5961,16 @@
       <c r="C116" t="s">
         <v>6</v>
       </c>
+      <c r="D116">
+        <v>2021</v>
+      </c>
+      <c r="E116">
+        <v>-0.100550668073825</v>
+      </c>
       <c r="F116" t="s">
         <v>77</v>
       </c>
       <c r="G116">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H116" t="s">
@@ -5979,11 +6002,16 @@
       <c r="C117" t="s">
         <v>6</v>
       </c>
+      <c r="D117">
+        <v>1999</v>
+      </c>
+      <c r="E117">
+        <v>-0.130020119322237</v>
+      </c>
       <c r="F117" t="s">
         <v>66</v>
       </c>
       <c r="G117">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H117" t="s">
@@ -6015,11 +6043,16 @@
       <c r="C118" t="s">
         <v>6</v>
       </c>
+      <c r="D118">
+        <v>2000</v>
+      </c>
+      <c r="E118">
+        <v>-0.13865543556526799</v>
+      </c>
       <c r="F118" t="s">
         <v>66</v>
       </c>
       <c r="G118">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H118" t="s">
@@ -6051,11 +6084,16 @@
       <c r="C119" t="s">
         <v>6</v>
       </c>
+      <c r="D119">
+        <v>2001</v>
+      </c>
+      <c r="E119">
+        <v>-0.104402168080477</v>
+      </c>
       <c r="F119" t="s">
         <v>66</v>
       </c>
       <c r="G119">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H119" t="s">
@@ -6087,11 +6125,16 @@
       <c r="C120" t="s">
         <v>6</v>
       </c>
+      <c r="D120">
+        <v>2002</v>
+      </c>
+      <c r="E120">
+        <v>-0.12021427401072</v>
+      </c>
       <c r="F120" t="s">
         <v>66</v>
       </c>
       <c r="G120">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H120" t="s">
@@ -6123,11 +6166,16 @@
       <c r="C121" t="s">
         <v>6</v>
       </c>
+      <c r="D121">
+        <v>2003</v>
+      </c>
+      <c r="E121">
+        <v>-0.12794384614622001</v>
+      </c>
       <c r="F121" t="s">
         <v>66</v>
       </c>
       <c r="G121">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H121" t="s">
@@ -6159,11 +6207,16 @@
       <c r="C122" t="s">
         <v>6</v>
       </c>
+      <c r="D122">
+        <v>2004</v>
+      </c>
+      <c r="E122">
+        <v>-0.13866895257727299</v>
+      </c>
       <c r="F122" t="s">
         <v>66</v>
       </c>
       <c r="G122">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H122" t="s">
@@ -6195,11 +6248,16 @@
       <c r="C123" t="s">
         <v>6</v>
       </c>
+      <c r="D123">
+        <v>2005</v>
+      </c>
+      <c r="E123">
+        <v>-0.12598035354859899</v>
+      </c>
       <c r="F123" t="s">
         <v>66</v>
       </c>
       <c r="G123">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H123" t="s">
@@ -6231,11 +6289,16 @@
       <c r="C124" t="s">
         <v>6</v>
       </c>
+      <c r="D124">
+        <v>2006</v>
+      </c>
+      <c r="E124">
+        <v>-0.130988489480825</v>
+      </c>
       <c r="F124" t="s">
         <v>66</v>
       </c>
       <c r="G124">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H124" t="s">
@@ -6267,11 +6330,16 @@
       <c r="C125" t="s">
         <v>6</v>
       </c>
+      <c r="D125">
+        <v>2007</v>
+      </c>
+      <c r="E125">
+        <v>-0.154375678431703</v>
+      </c>
       <c r="F125" t="s">
         <v>66</v>
       </c>
       <c r="G125">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H125" t="s">
@@ -6303,11 +6371,16 @@
       <c r="C126" t="s">
         <v>6</v>
       </c>
+      <c r="D126">
+        <v>2008</v>
+      </c>
+      <c r="E126">
+        <v>-0.12702742344107901</v>
+      </c>
       <c r="F126" t="s">
         <v>66</v>
       </c>
       <c r="G126">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H126" t="s">
@@ -6339,11 +6412,16 @@
       <c r="C127" t="s">
         <v>6</v>
       </c>
+      <c r="D127">
+        <v>2009</v>
+      </c>
+      <c r="E127">
+        <v>-0.146485378189953</v>
+      </c>
       <c r="F127" t="s">
         <v>66</v>
       </c>
       <c r="G127">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H127" t="s">
@@ -6375,11 +6453,16 @@
       <c r="C128" t="s">
         <v>6</v>
       </c>
+      <c r="D128">
+        <v>2010</v>
+      </c>
+      <c r="E128">
+        <v>-0.15826334470064099</v>
+      </c>
       <c r="F128" t="s">
         <v>66</v>
       </c>
       <c r="G128">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H128" t="s">
@@ -6411,11 +6494,16 @@
       <c r="C129" t="s">
         <v>6</v>
       </c>
+      <c r="D129">
+        <v>2011</v>
+      </c>
+      <c r="E129">
+        <v>-0.122203580724938</v>
+      </c>
       <c r="F129" t="s">
         <v>66</v>
       </c>
       <c r="G129">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H129" t="s">
@@ -6447,11 +6535,16 @@
       <c r="C130" t="s">
         <v>6</v>
       </c>
+      <c r="D130">
+        <v>2012</v>
+      </c>
+      <c r="E130">
+        <v>-0.13570677021866301</v>
+      </c>
       <c r="F130" t="s">
         <v>66</v>
       </c>
       <c r="G130">
-        <f t="shared" ref="G130:G193" si="2">IF(F130="NA",0,1)</f>
         <v>1</v>
       </c>
       <c r="H130" t="s">
@@ -6483,11 +6576,16 @@
       <c r="C131" t="s">
         <v>6</v>
       </c>
+      <c r="D131">
+        <v>2013</v>
+      </c>
+      <c r="E131">
+        <v>-0.15335771084144001</v>
+      </c>
       <c r="F131" t="s">
         <v>66</v>
       </c>
       <c r="G131">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H131" t="s">
@@ -6519,11 +6617,16 @@
       <c r="C132" t="s">
         <v>6</v>
       </c>
+      <c r="D132">
+        <v>2014</v>
+      </c>
+      <c r="E132">
+        <v>-0.14742040260825301</v>
+      </c>
       <c r="F132" t="s">
         <v>66</v>
       </c>
       <c r="G132">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H132" t="s">
@@ -6555,11 +6658,16 @@
       <c r="C133" t="s">
         <v>6</v>
       </c>
+      <c r="D133">
+        <v>2015</v>
+      </c>
+      <c r="E133">
+        <v>-0.13560208322447001</v>
+      </c>
       <c r="F133" t="s">
         <v>66</v>
       </c>
       <c r="G133">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H133" t="s">
@@ -6591,11 +6699,16 @@
       <c r="C134" t="s">
         <v>6</v>
       </c>
+      <c r="D134">
+        <v>2016</v>
+      </c>
+      <c r="E134">
+        <v>-0.123967201438812</v>
+      </c>
       <c r="F134" t="s">
         <v>66</v>
       </c>
       <c r="G134">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H134" t="s">
@@ -6627,11 +6740,16 @@
       <c r="C135" t="s">
         <v>6</v>
       </c>
+      <c r="D135">
+        <v>2017</v>
+      </c>
+      <c r="E135">
+        <v>-0.14546671854405899</v>
+      </c>
       <c r="F135" t="s">
         <v>66</v>
       </c>
       <c r="G135">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H135" t="s">
@@ -6663,11 +6781,16 @@
       <c r="C136" t="s">
         <v>6</v>
       </c>
+      <c r="D136">
+        <v>2018</v>
+      </c>
+      <c r="E136">
+        <v>-0.142625454368869</v>
+      </c>
       <c r="F136" t="s">
         <v>66</v>
       </c>
       <c r="G136">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H136" t="s">
@@ -6699,11 +6822,16 @@
       <c r="C137" t="s">
         <v>6</v>
       </c>
+      <c r="D137">
+        <v>2019</v>
+      </c>
+      <c r="E137">
+        <v>-0.15424907537182</v>
+      </c>
       <c r="F137" t="s">
         <v>66</v>
       </c>
       <c r="G137">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H137" t="s">
@@ -6735,11 +6863,16 @@
       <c r="C138" t="s">
         <v>6</v>
       </c>
+      <c r="D138">
+        <v>2020</v>
+      </c>
+      <c r="E138">
+        <v>-0.153386612443557</v>
+      </c>
       <c r="F138" t="s">
         <v>66</v>
       </c>
       <c r="G138">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H138" t="s">
@@ -6771,11 +6904,16 @@
       <c r="C139" t="s">
         <v>6</v>
       </c>
+      <c r="D139">
+        <v>2021</v>
+      </c>
+      <c r="E139">
+        <v>-0.14167076613636601</v>
+      </c>
       <c r="F139" t="s">
         <v>66</v>
       </c>
       <c r="G139">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H139" t="s">
@@ -6811,7 +6949,6 @@
         <v>77</v>
       </c>
       <c r="G140">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H140" t="s">
@@ -6847,7 +6984,6 @@
         <v>77</v>
       </c>
       <c r="G141">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H141" t="s">
@@ -6883,7 +7019,6 @@
         <v>77</v>
       </c>
       <c r="G142">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H142" t="s">
@@ -6919,7 +7054,6 @@
         <v>77</v>
       </c>
       <c r="G143">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H143" t="s">
@@ -6955,7 +7089,6 @@
         <v>77</v>
       </c>
       <c r="G144">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H144" t="s">
@@ -6991,7 +7124,6 @@
         <v>77</v>
       </c>
       <c r="G145">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H145" t="s">
@@ -7027,7 +7159,6 @@
         <v>77</v>
       </c>
       <c r="G146">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H146" t="s">
@@ -7063,7 +7194,6 @@
         <v>77</v>
       </c>
       <c r="G147">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H147" t="s">
@@ -7099,7 +7229,6 @@
         <v>77</v>
       </c>
       <c r="G148">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H148" t="s">
@@ -7135,7 +7264,6 @@
         <v>77</v>
       </c>
       <c r="G149">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H149" t="s">
@@ -7171,7 +7299,6 @@
         <v>77</v>
       </c>
       <c r="G150">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H150" t="s">
@@ -7207,7 +7334,6 @@
         <v>77</v>
       </c>
       <c r="G151">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H151" t="s">
@@ -7243,7 +7369,6 @@
         <v>77</v>
       </c>
       <c r="G152">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H152" t="s">
@@ -7279,7 +7404,6 @@
         <v>77</v>
       </c>
       <c r="G153">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H153" t="s">
@@ -7315,7 +7439,6 @@
         <v>77</v>
       </c>
       <c r="G154">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H154" t="s">
@@ -7351,7 +7474,6 @@
         <v>77</v>
       </c>
       <c r="G155">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H155" t="s">
@@ -7387,7 +7509,6 @@
         <v>77</v>
       </c>
       <c r="G156">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H156" t="s">
@@ -7423,7 +7544,6 @@
         <v>77</v>
       </c>
       <c r="G157">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H157" t="s">
@@ -7459,7 +7579,6 @@
         <v>77</v>
       </c>
       <c r="G158">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H158" t="s">
@@ -7495,7 +7614,6 @@
         <v>77</v>
       </c>
       <c r="G159">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H159" t="s">
@@ -7531,7 +7649,6 @@
         <v>77</v>
       </c>
       <c r="G160">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H160" t="s">
@@ -7567,7 +7684,6 @@
         <v>77</v>
       </c>
       <c r="G161">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H161" t="s">
@@ -7603,7 +7719,6 @@
         <v>77</v>
       </c>
       <c r="G162">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H162" t="s">
@@ -7639,7 +7754,6 @@
         <v>75</v>
       </c>
       <c r="G163">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H163" t="s">
@@ -7675,7 +7789,6 @@
         <v>75</v>
       </c>
       <c r="G164">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H164" t="s">
@@ -7711,7 +7824,6 @@
         <v>75</v>
       </c>
       <c r="G165">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H165" t="s">
@@ -7747,7 +7859,6 @@
         <v>75</v>
       </c>
       <c r="G166">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H166" t="s">
@@ -7783,7 +7894,6 @@
         <v>75</v>
       </c>
       <c r="G167">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H167" t="s">
@@ -7819,7 +7929,6 @@
         <v>75</v>
       </c>
       <c r="G168">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H168" t="s">
@@ -7855,7 +7964,6 @@
         <v>75</v>
       </c>
       <c r="G169">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H169" t="s">
@@ -7891,7 +7999,6 @@
         <v>75</v>
       </c>
       <c r="G170">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H170" t="s">
@@ -7927,7 +8034,6 @@
         <v>75</v>
       </c>
       <c r="G171">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H171" t="s">
@@ -7963,7 +8069,6 @@
         <v>75</v>
       </c>
       <c r="G172">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H172" t="s">
@@ -7999,7 +8104,6 @@
         <v>75</v>
       </c>
       <c r="G173">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H173" t="s">
@@ -8035,7 +8139,6 @@
         <v>75</v>
       </c>
       <c r="G174">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H174" t="s">
@@ -8071,7 +8174,6 @@
         <v>75</v>
       </c>
       <c r="G175">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H175" t="s">
@@ -8107,7 +8209,6 @@
         <v>75</v>
       </c>
       <c r="G176">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H176" t="s">
@@ -8143,7 +8244,6 @@
         <v>75</v>
       </c>
       <c r="G177">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H177" t="s">
@@ -8179,7 +8279,6 @@
         <v>75</v>
       </c>
       <c r="G178">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H178" t="s">
@@ -8215,7 +8314,6 @@
         <v>75</v>
       </c>
       <c r="G179">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H179" t="s">
@@ -8251,7 +8349,6 @@
         <v>75</v>
       </c>
       <c r="G180">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H180" t="s">
@@ -8287,7 +8384,6 @@
         <v>75</v>
       </c>
       <c r="G181">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H181" t="s">
@@ -8323,7 +8419,6 @@
         <v>75</v>
       </c>
       <c r="G182">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H182" t="s">
@@ -8359,7 +8454,6 @@
         <v>75</v>
       </c>
       <c r="G183">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H183" t="s">
@@ -8395,7 +8489,6 @@
         <v>75</v>
       </c>
       <c r="G184">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H184" t="s">
@@ -8431,7 +8524,6 @@
         <v>75</v>
       </c>
       <c r="G185">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H185" t="s">
@@ -8467,7 +8559,6 @@
         <v>74</v>
       </c>
       <c r="G186">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H186" t="s">
@@ -8503,7 +8594,6 @@
         <v>74</v>
       </c>
       <c r="G187">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H187" t="s">
@@ -8539,7 +8629,6 @@
         <v>74</v>
       </c>
       <c r="G188">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H188" t="s">
@@ -8575,7 +8664,6 @@
         <v>74</v>
       </c>
       <c r="G189">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H189" t="s">
@@ -8611,7 +8699,6 @@
         <v>74</v>
       </c>
       <c r="G190">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H190" t="s">
@@ -8647,7 +8734,6 @@
         <v>74</v>
       </c>
       <c r="G191">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H191" t="s">
@@ -8683,7 +8769,6 @@
         <v>74</v>
       </c>
       <c r="G192">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H192" t="s">
@@ -8719,7 +8804,6 @@
         <v>74</v>
       </c>
       <c r="G193">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H193" t="s">
@@ -8755,7 +8839,6 @@
         <v>74</v>
       </c>
       <c r="G194">
-        <f t="shared" ref="G194:G257" si="3">IF(F194="NA",0,1)</f>
         <v>1</v>
       </c>
       <c r="H194" t="s">
@@ -8791,7 +8874,6 @@
         <v>74</v>
       </c>
       <c r="G195">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H195" t="s">
@@ -8827,7 +8909,6 @@
         <v>74</v>
       </c>
       <c r="G196">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H196" t="s">
@@ -8863,7 +8944,6 @@
         <v>74</v>
       </c>
       <c r="G197">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H197" t="s">
@@ -8899,7 +8979,6 @@
         <v>74</v>
       </c>
       <c r="G198">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H198" t="s">
@@ -8935,7 +9014,6 @@
         <v>74</v>
       </c>
       <c r="G199">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H199" t="s">
@@ -8971,7 +9049,6 @@
         <v>74</v>
       </c>
       <c r="G200">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H200" t="s">
@@ -9007,7 +9084,6 @@
         <v>74</v>
       </c>
       <c r="G201">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H201" t="s">
@@ -9043,7 +9119,6 @@
         <v>74</v>
       </c>
       <c r="G202">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H202" t="s">
@@ -9079,7 +9154,6 @@
         <v>74</v>
       </c>
       <c r="G203">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H203" t="s">
@@ -9115,7 +9189,6 @@
         <v>74</v>
       </c>
       <c r="G204">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H204" t="s">
@@ -9151,7 +9224,6 @@
         <v>74</v>
       </c>
       <c r="G205">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H205" t="s">
@@ -9187,7 +9259,6 @@
         <v>74</v>
       </c>
       <c r="G206">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H206" t="s">
@@ -9223,7 +9294,6 @@
         <v>74</v>
       </c>
       <c r="G207">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H207" t="s">
@@ -9259,7 +9329,6 @@
         <v>74</v>
       </c>
       <c r="G208">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H208" t="s">
@@ -9295,7 +9364,6 @@
         <v>77</v>
       </c>
       <c r="G209">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H209" t="s">
@@ -9331,7 +9399,6 @@
         <v>77</v>
       </c>
       <c r="G210">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H210" t="s">
@@ -9367,7 +9434,6 @@
         <v>77</v>
       </c>
       <c r="G211">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H211" t="s">
@@ -9403,7 +9469,6 @@
         <v>77</v>
       </c>
       <c r="G212">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H212" t="s">
@@ -9439,7 +9504,6 @@
         <v>77</v>
       </c>
       <c r="G213">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H213" t="s">
@@ -9475,7 +9539,6 @@
         <v>77</v>
       </c>
       <c r="G214">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H214" t="s">
@@ -9511,7 +9574,6 @@
         <v>77</v>
       </c>
       <c r="G215">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H215" t="s">
@@ -9547,7 +9609,6 @@
         <v>77</v>
       </c>
       <c r="G216">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H216" t="s">
@@ -9583,7 +9644,6 @@
         <v>77</v>
       </c>
       <c r="G217">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H217" t="s">
@@ -9619,7 +9679,6 @@
         <v>77</v>
       </c>
       <c r="G218">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H218" t="s">
@@ -9655,7 +9714,6 @@
         <v>77</v>
       </c>
       <c r="G219">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H219" t="s">
@@ -9691,7 +9749,6 @@
         <v>77</v>
       </c>
       <c r="G220">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H220" t="s">
@@ -9727,7 +9784,6 @@
         <v>77</v>
       </c>
       <c r="G221">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H221" t="s">
@@ -9763,7 +9819,6 @@
         <v>77</v>
       </c>
       <c r="G222">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H222" t="s">
@@ -9799,7 +9854,6 @@
         <v>77</v>
       </c>
       <c r="G223">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H223" t="s">
@@ -9835,7 +9889,6 @@
         <v>77</v>
       </c>
       <c r="G224">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H224" t="s">
@@ -9871,7 +9924,6 @@
         <v>77</v>
       </c>
       <c r="G225">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H225" t="s">
@@ -9907,7 +9959,6 @@
         <v>77</v>
       </c>
       <c r="G226">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H226" t="s">
@@ -9943,7 +9994,6 @@
         <v>77</v>
       </c>
       <c r="G227">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H227" t="s">
@@ -9979,7 +10029,6 @@
         <v>77</v>
       </c>
       <c r="G228">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H228" t="s">
@@ -10015,7 +10064,6 @@
         <v>77</v>
       </c>
       <c r="G229">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H229" t="s">
@@ -10051,7 +10099,6 @@
         <v>77</v>
       </c>
       <c r="G230">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H230" t="s">
@@ -10087,7 +10134,6 @@
         <v>77</v>
       </c>
       <c r="G231">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H231" t="s">
@@ -10123,7 +10169,6 @@
         <v>77</v>
       </c>
       <c r="G232">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H232" t="s">
@@ -10159,7 +10204,6 @@
         <v>77</v>
       </c>
       <c r="G233">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H233" t="s">
@@ -10195,7 +10239,6 @@
         <v>77</v>
       </c>
       <c r="G234">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H234" t="s">
@@ -10231,7 +10274,6 @@
         <v>77</v>
       </c>
       <c r="G235">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H235" t="s">
@@ -10267,7 +10309,6 @@
         <v>77</v>
       </c>
       <c r="G236">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H236" t="s">
@@ -10303,7 +10344,6 @@
         <v>77</v>
       </c>
       <c r="G237">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H237" t="s">
@@ -10339,7 +10379,6 @@
         <v>77</v>
       </c>
       <c r="G238">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H238" t="s">
@@ -10375,7 +10414,6 @@
         <v>77</v>
       </c>
       <c r="G239">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H239" t="s">
@@ -10411,7 +10449,6 @@
         <v>77</v>
       </c>
       <c r="G240">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H240" t="s">
@@ -10447,7 +10484,6 @@
         <v>77</v>
       </c>
       <c r="G241">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H241" t="s">
@@ -10483,7 +10519,6 @@
         <v>77</v>
       </c>
       <c r="G242">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H242" t="s">
@@ -10519,7 +10554,6 @@
         <v>77</v>
       </c>
       <c r="G243">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H243" t="s">
@@ -10555,7 +10589,6 @@
         <v>77</v>
       </c>
       <c r="G244">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H244" t="s">
@@ -10591,7 +10624,6 @@
         <v>77</v>
       </c>
       <c r="G245">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H245" t="s">
@@ -10627,7 +10659,6 @@
         <v>77</v>
       </c>
       <c r="G246">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H246" t="s">
@@ -10663,7 +10694,6 @@
         <v>77</v>
       </c>
       <c r="G247">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H247" t="s">
@@ -10699,7 +10729,6 @@
         <v>77</v>
       </c>
       <c r="G248">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H248" t="s">
@@ -10735,7 +10764,6 @@
         <v>77</v>
       </c>
       <c r="G249">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H249" t="s">
@@ -10771,7 +10799,6 @@
         <v>77</v>
       </c>
       <c r="G250">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H250" t="s">
@@ -10807,7 +10834,6 @@
         <v>77</v>
       </c>
       <c r="G251">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H251" t="s">
@@ -10843,7 +10869,6 @@
         <v>77</v>
       </c>
       <c r="G252">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H252" t="s">
@@ -10879,7 +10904,6 @@
         <v>77</v>
       </c>
       <c r="G253">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H253" t="s">
@@ -10915,7 +10939,6 @@
         <v>77</v>
       </c>
       <c r="G254">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H254" t="s">
@@ -10951,7 +10974,6 @@
         <v>74</v>
       </c>
       <c r="G255">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H255" t="s">
@@ -10987,7 +11009,6 @@
         <v>74</v>
       </c>
       <c r="G256">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H256" t="s">
@@ -11023,7 +11044,6 @@
         <v>74</v>
       </c>
       <c r="G257">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H257" t="s">
@@ -11059,7 +11079,6 @@
         <v>74</v>
       </c>
       <c r="G258">
-        <f t="shared" ref="G258:G321" si="4">IF(F258="NA",0,1)</f>
         <v>1</v>
       </c>
       <c r="H258" t="s">
@@ -11095,7 +11114,6 @@
         <v>74</v>
       </c>
       <c r="G259">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H259" t="s">
@@ -11131,7 +11149,6 @@
         <v>74</v>
       </c>
       <c r="G260">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H260" t="s">
@@ -11167,7 +11184,6 @@
         <v>74</v>
       </c>
       <c r="G261">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H261" t="s">
@@ -11203,7 +11219,6 @@
         <v>74</v>
       </c>
       <c r="G262">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H262" t="s">
@@ -11239,7 +11254,6 @@
         <v>74</v>
       </c>
       <c r="G263">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H263" t="s">
@@ -11275,7 +11289,6 @@
         <v>74</v>
       </c>
       <c r="G264">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H264" t="s">
@@ -11311,7 +11324,6 @@
         <v>74</v>
       </c>
       <c r="G265">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H265" t="s">
@@ -11347,7 +11359,6 @@
         <v>74</v>
       </c>
       <c r="G266">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H266" t="s">
@@ -11383,7 +11394,6 @@
         <v>74</v>
       </c>
       <c r="G267">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H267" t="s">
@@ -11419,7 +11429,6 @@
         <v>74</v>
       </c>
       <c r="G268">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H268" t="s">
@@ -11455,7 +11464,6 @@
         <v>74</v>
       </c>
       <c r="G269">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H269" t="s">
@@ -11491,7 +11499,6 @@
         <v>74</v>
       </c>
       <c r="G270">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H270" t="s">
@@ -11527,7 +11534,6 @@
         <v>74</v>
       </c>
       <c r="G271">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H271" t="s">
@@ -11563,7 +11569,6 @@
         <v>74</v>
       </c>
       <c r="G272">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H272" t="s">
@@ -11599,7 +11604,6 @@
         <v>74</v>
       </c>
       <c r="G273">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H273" t="s">
@@ -11635,7 +11639,6 @@
         <v>74</v>
       </c>
       <c r="G274">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H274" t="s">
@@ -11671,7 +11674,6 @@
         <v>74</v>
       </c>
       <c r="G275">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H275" t="s">
@@ -11707,7 +11709,6 @@
         <v>74</v>
       </c>
       <c r="G276">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H276" t="s">
@@ -11743,7 +11744,6 @@
         <v>74</v>
       </c>
       <c r="G277">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H277" t="s">
@@ -11779,7 +11779,6 @@
         <v>77</v>
       </c>
       <c r="G278">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H278" t="s">
@@ -11815,7 +11814,6 @@
         <v>77</v>
       </c>
       <c r="G279">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H279" t="s">
@@ -11851,7 +11849,6 @@
         <v>77</v>
       </c>
       <c r="G280">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H280" t="s">
@@ -11887,7 +11884,6 @@
         <v>77</v>
       </c>
       <c r="G281">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H281" t="s">
@@ -11923,7 +11919,6 @@
         <v>77</v>
       </c>
       <c r="G282">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H282" t="s">
@@ -11959,7 +11954,6 @@
         <v>77</v>
       </c>
       <c r="G283">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H283" t="s">
@@ -11995,7 +11989,6 @@
         <v>77</v>
       </c>
       <c r="G284">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H284" t="s">
@@ -12031,7 +12024,6 @@
         <v>77</v>
       </c>
       <c r="G285">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H285" t="s">
@@ -12067,7 +12059,6 @@
         <v>77</v>
       </c>
       <c r="G286">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H286" t="s">
@@ -12103,7 +12094,6 @@
         <v>77</v>
       </c>
       <c r="G287">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H287" t="s">
@@ -12139,7 +12129,6 @@
         <v>77</v>
       </c>
       <c r="G288">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H288" t="s">
@@ -12175,7 +12164,6 @@
         <v>77</v>
       </c>
       <c r="G289">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H289" t="s">
@@ -12211,7 +12199,6 @@
         <v>77</v>
       </c>
       <c r="G290">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H290" t="s">
@@ -12247,7 +12234,6 @@
         <v>77</v>
       </c>
       <c r="G291">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H291" t="s">
@@ -12283,7 +12269,6 @@
         <v>77</v>
       </c>
       <c r="G292">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H292" t="s">
@@ -12319,7 +12304,6 @@
         <v>77</v>
       </c>
       <c r="G293">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H293" t="s">
@@ -12355,7 +12339,6 @@
         <v>77</v>
       </c>
       <c r="G294">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H294" t="s">
@@ -12391,7 +12374,6 @@
         <v>77</v>
       </c>
       <c r="G295">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H295" t="s">
@@ -12427,7 +12409,6 @@
         <v>77</v>
       </c>
       <c r="G296">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H296" t="s">
@@ -12463,7 +12444,6 @@
         <v>77</v>
       </c>
       <c r="G297">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H297" t="s">
@@ -12499,7 +12479,6 @@
         <v>77</v>
       </c>
       <c r="G298">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H298" t="s">
@@ -12535,7 +12514,6 @@
         <v>77</v>
       </c>
       <c r="G299">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H299" t="s">
@@ -12571,7 +12549,6 @@
         <v>77</v>
       </c>
       <c r="G300">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H300" t="s">
@@ -12607,7 +12584,6 @@
         <v>75</v>
       </c>
       <c r="G301">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H301" t="s">
@@ -12643,7 +12619,6 @@
         <v>75</v>
       </c>
       <c r="G302">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H302" t="s">
@@ -12679,7 +12654,6 @@
         <v>75</v>
       </c>
       <c r="G303">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H303" t="s">
@@ -12715,7 +12689,6 @@
         <v>75</v>
       </c>
       <c r="G304">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H304" t="s">
@@ -12751,7 +12724,6 @@
         <v>75</v>
       </c>
       <c r="G305">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H305" t="s">
@@ -12787,7 +12759,6 @@
         <v>75</v>
       </c>
       <c r="G306">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H306" t="s">
@@ -12823,7 +12794,6 @@
         <v>75</v>
       </c>
       <c r="G307">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H307" t="s">
@@ -12859,7 +12829,6 @@
         <v>75</v>
       </c>
       <c r="G308">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H308" t="s">
@@ -12895,7 +12864,6 @@
         <v>75</v>
       </c>
       <c r="G309">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H309" t="s">
@@ -12931,7 +12899,6 @@
         <v>75</v>
       </c>
       <c r="G310">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H310" t="s">
@@ -12967,7 +12934,6 @@
         <v>75</v>
       </c>
       <c r="G311">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H311" t="s">
@@ -13003,7 +12969,6 @@
         <v>75</v>
       </c>
       <c r="G312">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H312" t="s">
@@ -13039,7 +13004,6 @@
         <v>75</v>
       </c>
       <c r="G313">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H313" t="s">
@@ -13075,7 +13039,6 @@
         <v>75</v>
       </c>
       <c r="G314">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H314" t="s">
@@ -13111,7 +13074,6 @@
         <v>75</v>
       </c>
       <c r="G315">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H315" t="s">
@@ -13147,7 +13109,6 @@
         <v>75</v>
       </c>
       <c r="G316">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H316" t="s">
@@ -13183,7 +13144,6 @@
         <v>75</v>
       </c>
       <c r="G317">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H317" t="s">
@@ -13219,7 +13179,6 @@
         <v>75</v>
       </c>
       <c r="G318">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H318" t="s">
@@ -13255,7 +13214,6 @@
         <v>75</v>
       </c>
       <c r="G319">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H319" t="s">
@@ -13291,7 +13249,6 @@
         <v>75</v>
       </c>
       <c r="G320">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H320" t="s">
@@ -13327,7 +13284,6 @@
         <v>75</v>
       </c>
       <c r="G321">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H321" t="s">
@@ -13363,7 +13319,6 @@
         <v>75</v>
       </c>
       <c r="G322">
-        <f t="shared" ref="G322:G346" si="5">IF(F322="NA",0,1)</f>
         <v>1</v>
       </c>
       <c r="H322" t="s">
@@ -13399,7 +13354,6 @@
         <v>75</v>
       </c>
       <c r="G323">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H323" t="s">
@@ -13435,7 +13389,6 @@
         <v>77</v>
       </c>
       <c r="G324">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H324" t="s">
@@ -13471,7 +13424,6 @@
         <v>77</v>
       </c>
       <c r="G325">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H325" t="s">
@@ -13507,7 +13459,6 @@
         <v>77</v>
       </c>
       <c r="G326">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H326" t="s">
@@ -13543,7 +13494,6 @@
         <v>77</v>
       </c>
       <c r="G327">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H327" t="s">
@@ -13579,7 +13529,6 @@
         <v>77</v>
       </c>
       <c r="G328">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H328" t="s">
@@ -13615,7 +13564,6 @@
         <v>77</v>
       </c>
       <c r="G329">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H329" t="s">
@@ -13651,7 +13599,6 @@
         <v>77</v>
       </c>
       <c r="G330">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H330" t="s">
@@ -13687,7 +13634,6 @@
         <v>77</v>
       </c>
       <c r="G331">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H331" t="s">
@@ -13723,7 +13669,6 @@
         <v>77</v>
       </c>
       <c r="G332">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H332" t="s">
@@ -13759,7 +13704,6 @@
         <v>77</v>
       </c>
       <c r="G333">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H333" t="s">
@@ -13795,7 +13739,6 @@
         <v>77</v>
       </c>
       <c r="G334">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H334" t="s">
@@ -13831,7 +13774,6 @@
         <v>77</v>
       </c>
       <c r="G335">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H335" t="s">
@@ -13867,7 +13809,6 @@
         <v>77</v>
       </c>
       <c r="G336">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H336" t="s">
@@ -13903,7 +13844,6 @@
         <v>77</v>
       </c>
       <c r="G337">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H337" t="s">
@@ -13939,7 +13879,6 @@
         <v>77</v>
       </c>
       <c r="G338">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H338" t="s">
@@ -13975,7 +13914,6 @@
         <v>77</v>
       </c>
       <c r="G339">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H339" t="s">
@@ -14011,7 +13949,6 @@
         <v>77</v>
       </c>
       <c r="G340">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H340" t="s">
@@ -14047,7 +13984,6 @@
         <v>77</v>
       </c>
       <c r="G341">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H341" t="s">
@@ -14083,7 +14019,6 @@
         <v>77</v>
       </c>
       <c r="G342">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H342" t="s">
@@ -14119,7 +14054,6 @@
         <v>77</v>
       </c>
       <c r="G343">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H343" t="s">
@@ -14155,7 +14089,6 @@
         <v>77</v>
       </c>
       <c r="G344">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H344" t="s">
@@ -14191,7 +14124,6 @@
         <v>77</v>
       </c>
       <c r="G345">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H345" t="s">
@@ -14227,7 +14159,6 @@
         <v>77</v>
       </c>
       <c r="G346">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H346" t="s">
@@ -14269,7 +14200,6 @@
         <v>66</v>
       </c>
       <c r="G347">
-        <f>IF(F347="NA",0,1)</f>
         <v>1</v>
       </c>
       <c r="H347" t="s">
@@ -14311,7 +14241,6 @@
         <v>66</v>
       </c>
       <c r="G348">
-        <f t="shared" ref="G348:G411" si="6">IF(F348="NA",0,1)</f>
         <v>1</v>
       </c>
       <c r="H348" t="s">
@@ -14353,7 +14282,6 @@
         <v>66</v>
       </c>
       <c r="G349">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H349" t="s">
@@ -14395,7 +14323,6 @@
         <v>66</v>
       </c>
       <c r="G350">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H350" t="s">
@@ -14437,7 +14364,6 @@
         <v>66</v>
       </c>
       <c r="G351">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H351" t="s">
@@ -14479,7 +14405,6 @@
         <v>66</v>
       </c>
       <c r="G352">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H352" t="s">
@@ -14521,7 +14446,6 @@
         <v>66</v>
       </c>
       <c r="G353">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H353" t="s">
@@ -14563,7 +14487,6 @@
         <v>66</v>
       </c>
       <c r="G354">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H354" t="s">
@@ -14605,7 +14528,6 @@
         <v>66</v>
       </c>
       <c r="G355">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H355" t="s">
@@ -14647,7 +14569,6 @@
         <v>66</v>
       </c>
       <c r="G356">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H356" t="s">
@@ -14689,7 +14610,6 @@
         <v>66</v>
       </c>
       <c r="G357">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H357" t="s">
@@ -14731,7 +14651,6 @@
         <v>66</v>
       </c>
       <c r="G358">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H358" t="s">
@@ -14773,7 +14692,6 @@
         <v>66</v>
       </c>
       <c r="G359">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H359" t="s">
@@ -14815,7 +14733,6 @@
         <v>66</v>
       </c>
       <c r="G360">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H360" t="s">
@@ -14857,7 +14774,6 @@
         <v>66</v>
       </c>
       <c r="G361">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H361" t="s">
@@ -14899,7 +14815,6 @@
         <v>66</v>
       </c>
       <c r="G362">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H362" t="s">
@@ -14941,7 +14856,6 @@
         <v>66</v>
       </c>
       <c r="G363">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H363" t="s">
@@ -14983,7 +14897,6 @@
         <v>66</v>
       </c>
       <c r="G364">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H364" t="s">
@@ -15025,7 +14938,6 @@
         <v>66</v>
       </c>
       <c r="G365">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H365" t="s">
@@ -15067,7 +14979,6 @@
         <v>66</v>
       </c>
       <c r="G366">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H366" t="s">
@@ -15109,7 +15020,6 @@
         <v>66</v>
       </c>
       <c r="G367">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H367" t="s">
@@ -15151,7 +15061,6 @@
         <v>66</v>
       </c>
       <c r="G368">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H368" t="s">
@@ -15193,7 +15102,6 @@
         <v>66</v>
       </c>
       <c r="G369">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H369" t="s">
@@ -15235,7 +15143,6 @@
         <v>66</v>
       </c>
       <c r="G370">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H370" t="s">
@@ -15277,7 +15184,6 @@
         <v>66</v>
       </c>
       <c r="G371">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H371" t="s">
@@ -15319,7 +15225,6 @@
         <v>66</v>
       </c>
       <c r="G372">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H372" t="s">
@@ -15361,7 +15266,6 @@
         <v>66</v>
       </c>
       <c r="G373">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H373" t="s">
@@ -15403,7 +15307,6 @@
         <v>66</v>
       </c>
       <c r="G374">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H374" t="s">
@@ -15445,7 +15348,6 @@
         <v>66</v>
       </c>
       <c r="G375">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H375" t="s">
@@ -15487,7 +15389,6 @@
         <v>66</v>
       </c>
       <c r="G376">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H376" t="s">
@@ -15529,7 +15430,6 @@
         <v>66</v>
       </c>
       <c r="G377">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H377" t="s">
@@ -15571,7 +15471,6 @@
         <v>66</v>
       </c>
       <c r="G378">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H378" t="s">
@@ -15613,7 +15512,6 @@
         <v>66</v>
       </c>
       <c r="G379">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H379" t="s">
@@ -15655,7 +15553,6 @@
         <v>66</v>
       </c>
       <c r="G380">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H380" t="s">
@@ -15697,7 +15594,6 @@
         <v>66</v>
       </c>
       <c r="G381">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H381" t="s">
@@ -15739,7 +15635,6 @@
         <v>66</v>
       </c>
       <c r="G382">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H382" t="s">
@@ -15781,7 +15676,6 @@
         <v>66</v>
       </c>
       <c r="G383">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H383" t="s">
@@ -15823,7 +15717,6 @@
         <v>66</v>
       </c>
       <c r="G384">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H384" t="s">
@@ -15865,7 +15758,6 @@
         <v>66</v>
       </c>
       <c r="G385">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H385" t="s">
@@ -15907,7 +15799,6 @@
         <v>66</v>
       </c>
       <c r="G386">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H386" t="s">
@@ -15949,7 +15840,6 @@
         <v>66</v>
       </c>
       <c r="G387">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H387" t="s">
@@ -15991,7 +15881,6 @@
         <v>66</v>
       </c>
       <c r="G388">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H388" t="s">
@@ -16033,7 +15922,6 @@
         <v>66</v>
       </c>
       <c r="G389">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H389" t="s">
@@ -16075,7 +15963,6 @@
         <v>66</v>
       </c>
       <c r="G390">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H390" t="s">
@@ -16117,7 +16004,6 @@
         <v>66</v>
       </c>
       <c r="G391">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H391" t="s">
@@ -16159,7 +16045,6 @@
         <v>66</v>
       </c>
       <c r="G392">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H392" t="s">
@@ -16201,7 +16086,6 @@
         <v>77</v>
       </c>
       <c r="G393">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H393" t="s">
@@ -16243,7 +16127,6 @@
         <v>77</v>
       </c>
       <c r="G394">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H394" t="s">
@@ -16285,7 +16168,6 @@
         <v>77</v>
       </c>
       <c r="G395">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H395" t="s">
@@ -16327,7 +16209,6 @@
         <v>77</v>
       </c>
       <c r="G396">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H396" t="s">
@@ -16369,7 +16250,6 @@
         <v>77</v>
       </c>
       <c r="G397">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H397" t="s">
@@ -16411,7 +16291,6 @@
         <v>77</v>
       </c>
       <c r="G398">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H398" t="s">
@@ -16453,7 +16332,6 @@
         <v>77</v>
       </c>
       <c r="G399">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H399" t="s">
@@ -16495,7 +16373,6 @@
         <v>77</v>
       </c>
       <c r="G400">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H400" t="s">
@@ -16537,7 +16414,6 @@
         <v>77</v>
       </c>
       <c r="G401">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H401" t="s">
@@ -16579,7 +16455,6 @@
         <v>77</v>
       </c>
       <c r="G402">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H402" t="s">
@@ -16621,7 +16496,6 @@
         <v>77</v>
       </c>
       <c r="G403">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H403" t="s">
@@ -16663,7 +16537,6 @@
         <v>77</v>
       </c>
       <c r="G404">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H404" t="s">
@@ -16705,7 +16578,6 @@
         <v>77</v>
       </c>
       <c r="G405">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H405" t="s">
@@ -16747,7 +16619,6 @@
         <v>77</v>
       </c>
       <c r="G406">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H406" t="s">
@@ -16789,7 +16660,6 @@
         <v>77</v>
       </c>
       <c r="G407">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H407" t="s">
@@ -16831,7 +16701,6 @@
         <v>77</v>
       </c>
       <c r="G408">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H408" t="s">
@@ -16873,7 +16742,6 @@
         <v>77</v>
       </c>
       <c r="G409">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H409" t="s">
@@ -16915,7 +16783,6 @@
         <v>77</v>
       </c>
       <c r="G410">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H410" t="s">
@@ -16957,7 +16824,6 @@
         <v>77</v>
       </c>
       <c r="G411">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H411" t="s">
@@ -16999,7 +16865,6 @@
         <v>77</v>
       </c>
       <c r="G412">
-        <f t="shared" ref="G412:G475" si="7">IF(F412="NA",0,1)</f>
         <v>0</v>
       </c>
       <c r="H412" t="s">
@@ -17041,7 +16906,6 @@
         <v>77</v>
       </c>
       <c r="G413">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H413" t="s">
@@ -17083,7 +16947,6 @@
         <v>77</v>
       </c>
       <c r="G414">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H414" t="s">
@@ -17125,7 +16988,6 @@
         <v>77</v>
       </c>
       <c r="G415">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H415" t="s">
@@ -17167,7 +17029,6 @@
         <v>77</v>
       </c>
       <c r="G416">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H416" t="s">
@@ -17209,7 +17070,6 @@
         <v>77</v>
       </c>
       <c r="G417">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H417" t="s">
@@ -17251,7 +17111,6 @@
         <v>77</v>
       </c>
       <c r="G418">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H418" t="s">
@@ -17293,7 +17152,6 @@
         <v>77</v>
       </c>
       <c r="G419">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H419" t="s">
@@ -17335,7 +17193,6 @@
         <v>77</v>
       </c>
       <c r="G420">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H420" t="s">
@@ -17377,7 +17234,6 @@
         <v>77</v>
       </c>
       <c r="G421">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H421" t="s">
@@ -17419,7 +17275,6 @@
         <v>77</v>
       </c>
       <c r="G422">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H422" t="s">
@@ -17461,7 +17316,6 @@
         <v>77</v>
       </c>
       <c r="G423">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H423" t="s">
@@ -17503,7 +17357,6 @@
         <v>77</v>
       </c>
       <c r="G424">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H424" t="s">
@@ -17545,7 +17398,6 @@
         <v>77</v>
       </c>
       <c r="G425">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H425" t="s">
@@ -17587,7 +17439,6 @@
         <v>77</v>
       </c>
       <c r="G426">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H426" t="s">
@@ -17629,7 +17480,6 @@
         <v>77</v>
       </c>
       <c r="G427">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H427" t="s">
@@ -17671,7 +17521,6 @@
         <v>77</v>
       </c>
       <c r="G428">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H428" t="s">
@@ -17713,7 +17562,6 @@
         <v>77</v>
       </c>
       <c r="G429">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H429" t="s">
@@ -17755,7 +17603,6 @@
         <v>77</v>
       </c>
       <c r="G430">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H430" t="s">
@@ -17797,7 +17644,6 @@
         <v>77</v>
       </c>
       <c r="G431">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H431" t="s">
@@ -17839,7 +17685,6 @@
         <v>77</v>
       </c>
       <c r="G432">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H432" t="s">
@@ -17881,7 +17726,6 @@
         <v>77</v>
       </c>
       <c r="G433">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H433" t="s">
@@ -17923,7 +17767,6 @@
         <v>77</v>
       </c>
       <c r="G434">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H434" t="s">
@@ -17965,7 +17808,6 @@
         <v>77</v>
       </c>
       <c r="G435">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H435" t="s">
@@ -18007,7 +17849,6 @@
         <v>77</v>
       </c>
       <c r="G436">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H436" t="s">
@@ -18049,7 +17890,6 @@
         <v>77</v>
       </c>
       <c r="G437">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H437" t="s">
@@ -18091,7 +17931,6 @@
         <v>77</v>
       </c>
       <c r="G438">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H438" t="s">
@@ -18133,7 +17972,6 @@
         <v>77</v>
       </c>
       <c r="G439">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H439" t="s">
@@ -18175,7 +18013,6 @@
         <v>77</v>
       </c>
       <c r="G440">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H440" t="s">
@@ -18217,7 +18054,6 @@
         <v>77</v>
       </c>
       <c r="G441">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H441" t="s">
@@ -18259,7 +18095,6 @@
         <v>77</v>
       </c>
       <c r="G442">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H442" t="s">
@@ -18301,7 +18136,6 @@
         <v>77</v>
       </c>
       <c r="G443">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H443" t="s">
@@ -18343,7 +18177,6 @@
         <v>77</v>
       </c>
       <c r="G444">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H444" t="s">
@@ -18385,7 +18218,6 @@
         <v>77</v>
       </c>
       <c r="G445">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H445" t="s">
@@ -18427,7 +18259,6 @@
         <v>77</v>
       </c>
       <c r="G446">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H446" t="s">
@@ -18469,7 +18300,6 @@
         <v>77</v>
       </c>
       <c r="G447">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H447" t="s">
@@ -18511,7 +18341,6 @@
         <v>77</v>
       </c>
       <c r="G448">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H448" t="s">
@@ -18553,7 +18382,6 @@
         <v>77</v>
       </c>
       <c r="G449">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H449" t="s">
@@ -18595,7 +18423,6 @@
         <v>77</v>
       </c>
       <c r="G450">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H450" t="s">
@@ -18637,7 +18464,6 @@
         <v>77</v>
       </c>
       <c r="G451">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H451" t="s">
@@ -18679,7 +18505,6 @@
         <v>77</v>
       </c>
       <c r="G452">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H452" t="s">
@@ -18721,7 +18546,6 @@
         <v>77</v>
       </c>
       <c r="G453">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H453" t="s">
@@ -18763,7 +18587,6 @@
         <v>77</v>
       </c>
       <c r="G454">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H454" t="s">
@@ -18805,7 +18628,6 @@
         <v>77</v>
       </c>
       <c r="G455">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H455" t="s">
@@ -18847,7 +18669,6 @@
         <v>77</v>
       </c>
       <c r="G456">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H456" t="s">
@@ -18889,7 +18710,6 @@
         <v>77</v>
       </c>
       <c r="G457">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H457" t="s">
@@ -18931,7 +18751,6 @@
         <v>77</v>
       </c>
       <c r="G458">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H458" t="s">
@@ -18973,7 +18792,6 @@
         <v>77</v>
       </c>
       <c r="G459">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H459" t="s">
@@ -19015,7 +18833,6 @@
         <v>77</v>
       </c>
       <c r="G460">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H460" t="s">
@@ -19057,7 +18874,6 @@
         <v>77</v>
       </c>
       <c r="G461">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H461" t="s">
@@ -19099,7 +18915,6 @@
         <v>66</v>
       </c>
       <c r="G462">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H462" t="s">
@@ -19141,7 +18956,6 @@
         <v>66</v>
       </c>
       <c r="G463">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H463" t="s">
@@ -19183,7 +18997,6 @@
         <v>66</v>
       </c>
       <c r="G464">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H464" t="s">
@@ -19225,7 +19038,6 @@
         <v>66</v>
       </c>
       <c r="G465">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H465" t="s">
@@ -19267,7 +19079,6 @@
         <v>66</v>
       </c>
       <c r="G466">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H466" t="s">
@@ -19309,7 +19120,6 @@
         <v>66</v>
       </c>
       <c r="G467">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H467" t="s">
@@ -19351,7 +19161,6 @@
         <v>66</v>
       </c>
       <c r="G468">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H468" t="s">
@@ -19393,7 +19202,6 @@
         <v>66</v>
       </c>
       <c r="G469">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H469" t="s">
@@ -19435,7 +19243,6 @@
         <v>66</v>
       </c>
       <c r="G470">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H470" t="s">
@@ -19477,7 +19284,6 @@
         <v>66</v>
       </c>
       <c r="G471">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H471" t="s">
@@ -19519,7 +19325,6 @@
         <v>66</v>
       </c>
       <c r="G472">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H472" t="s">
@@ -19561,7 +19366,6 @@
         <v>66</v>
       </c>
       <c r="G473">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H473" t="s">
@@ -19603,7 +19407,6 @@
         <v>66</v>
       </c>
       <c r="G474">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H474" t="s">
@@ -19645,7 +19448,6 @@
         <v>66</v>
       </c>
       <c r="G475">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H475" t="s">
@@ -19687,7 +19489,6 @@
         <v>66</v>
       </c>
       <c r="G476">
-        <f t="shared" ref="G476:G539" si="8">IF(F476="NA",0,1)</f>
         <v>1</v>
       </c>
       <c r="H476" t="s">
@@ -19729,7 +19530,6 @@
         <v>66</v>
       </c>
       <c r="G477">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H477" t="s">
@@ -19771,7 +19571,6 @@
         <v>66</v>
       </c>
       <c r="G478">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H478" t="s">
@@ -19813,7 +19612,6 @@
         <v>66</v>
       </c>
       <c r="G479">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H479" t="s">
@@ -19855,7 +19653,6 @@
         <v>66</v>
       </c>
       <c r="G480">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H480" t="s">
@@ -19897,7 +19694,6 @@
         <v>66</v>
       </c>
       <c r="G481">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H481" t="s">
@@ -19939,7 +19735,6 @@
         <v>66</v>
       </c>
       <c r="G482">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H482" t="s">
@@ -19981,7 +19776,6 @@
         <v>66</v>
       </c>
       <c r="G483">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H483" t="s">
@@ -20023,7 +19817,6 @@
         <v>66</v>
       </c>
       <c r="G484">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H484" t="s">
@@ -20065,7 +19858,6 @@
         <v>77</v>
       </c>
       <c r="G485">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H485" t="s">
@@ -20107,7 +19899,6 @@
         <v>77</v>
       </c>
       <c r="G486">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H486" t="s">
@@ -20149,7 +19940,6 @@
         <v>77</v>
       </c>
       <c r="G487">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H487" t="s">
@@ -20191,7 +19981,6 @@
         <v>77</v>
       </c>
       <c r="G488">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H488" t="s">
@@ -20233,7 +20022,6 @@
         <v>77</v>
       </c>
       <c r="G489">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H489" t="s">
@@ -20275,7 +20063,6 @@
         <v>77</v>
       </c>
       <c r="G490">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H490" t="s">
@@ -20317,7 +20104,6 @@
         <v>77</v>
       </c>
       <c r="G491">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H491" t="s">
@@ -20359,7 +20145,6 @@
         <v>77</v>
       </c>
       <c r="G492">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H492" t="s">
@@ -20401,7 +20186,6 @@
         <v>77</v>
       </c>
       <c r="G493">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H493" t="s">
@@ -20443,7 +20227,6 @@
         <v>77</v>
       </c>
       <c r="G494">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H494" t="s">
@@ -20485,7 +20268,6 @@
         <v>77</v>
       </c>
       <c r="G495">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H495" t="s">
@@ -20527,7 +20309,6 @@
         <v>77</v>
       </c>
       <c r="G496">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H496" t="s">
@@ -20569,7 +20350,6 @@
         <v>77</v>
       </c>
       <c r="G497">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H497" t="s">
@@ -20611,7 +20391,6 @@
         <v>77</v>
       </c>
       <c r="G498">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H498" t="s">
@@ -20653,7 +20432,6 @@
         <v>77</v>
       </c>
       <c r="G499">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H499" t="s">
@@ -20695,7 +20473,6 @@
         <v>77</v>
       </c>
       <c r="G500">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H500" t="s">
@@ -20737,7 +20514,6 @@
         <v>77</v>
       </c>
       <c r="G501">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H501" t="s">
@@ -20779,7 +20555,6 @@
         <v>77</v>
       </c>
       <c r="G502">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H502" t="s">
@@ -20821,7 +20596,6 @@
         <v>77</v>
       </c>
       <c r="G503">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H503" t="s">
@@ -20863,7 +20637,6 @@
         <v>77</v>
       </c>
       <c r="G504">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H504" t="s">
@@ -20905,7 +20678,6 @@
         <v>77</v>
       </c>
       <c r="G505">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H505" t="s">
@@ -20947,7 +20719,6 @@
         <v>77</v>
       </c>
       <c r="G506">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H506" t="s">
@@ -20989,7 +20760,6 @@
         <v>77</v>
       </c>
       <c r="G507">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H507" t="s">
@@ -21031,7 +20801,6 @@
         <v>75</v>
       </c>
       <c r="G508">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H508" t="s">
@@ -21073,7 +20842,6 @@
         <v>75</v>
       </c>
       <c r="G509">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H509" t="s">
@@ -21115,7 +20883,6 @@
         <v>75</v>
       </c>
       <c r="G510">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H510" t="s">
@@ -21157,7 +20924,6 @@
         <v>75</v>
       </c>
       <c r="G511">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H511" t="s">
@@ -21199,7 +20965,6 @@
         <v>75</v>
       </c>
       <c r="G512">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H512" t="s">
@@ -21241,7 +21006,6 @@
         <v>75</v>
       </c>
       <c r="G513">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H513" t="s">
@@ -21283,7 +21047,6 @@
         <v>75</v>
       </c>
       <c r="G514">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H514" t="s">
@@ -21325,7 +21088,6 @@
         <v>75</v>
       </c>
       <c r="G515">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H515" t="s">
@@ -21367,7 +21129,6 @@
         <v>75</v>
       </c>
       <c r="G516">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H516" t="s">
@@ -21409,7 +21170,6 @@
         <v>75</v>
       </c>
       <c r="G517">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H517" t="s">
@@ -21451,7 +21211,6 @@
         <v>75</v>
       </c>
       <c r="G518">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H518" t="s">
@@ -21493,7 +21252,6 @@
         <v>75</v>
       </c>
       <c r="G519">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H519" t="s">
@@ -21535,7 +21293,6 @@
         <v>75</v>
       </c>
       <c r="G520">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H520" t="s">
@@ -21577,7 +21334,6 @@
         <v>75</v>
       </c>
       <c r="G521">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H521" t="s">
@@ -21619,7 +21375,6 @@
         <v>75</v>
       </c>
       <c r="G522">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H522" t="s">
@@ -21661,7 +21416,6 @@
         <v>75</v>
       </c>
       <c r="G523">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H523" t="s">
@@ -21703,7 +21457,6 @@
         <v>75</v>
       </c>
       <c r="G524">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H524" t="s">
@@ -21745,7 +21498,6 @@
         <v>75</v>
       </c>
       <c r="G525">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H525" t="s">
@@ -21787,7 +21539,6 @@
         <v>75</v>
       </c>
       <c r="G526">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H526" t="s">
@@ -21829,7 +21580,6 @@
         <v>75</v>
       </c>
       <c r="G527">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H527" t="s">
@@ -21871,7 +21621,6 @@
         <v>75</v>
       </c>
       <c r="G528">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H528" t="s">
@@ -21913,7 +21662,6 @@
         <v>75</v>
       </c>
       <c r="G529">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H529" t="s">
@@ -21955,7 +21703,6 @@
         <v>75</v>
       </c>
       <c r="G530">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H530" t="s">
@@ -21997,7 +21744,6 @@
         <v>74</v>
       </c>
       <c r="G531">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H531" t="s">
@@ -22039,7 +21785,6 @@
         <v>74</v>
       </c>
       <c r="G532">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H532" t="s">
@@ -22081,7 +21826,6 @@
         <v>74</v>
       </c>
       <c r="G533">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H533" t="s">
@@ -22123,7 +21867,6 @@
         <v>74</v>
       </c>
       <c r="G534">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H534" t="s">
@@ -22165,7 +21908,6 @@
         <v>74</v>
       </c>
       <c r="G535">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H535" t="s">
@@ -22207,7 +21949,6 @@
         <v>74</v>
       </c>
       <c r="G536">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H536" t="s">
@@ -22249,7 +21990,6 @@
         <v>74</v>
       </c>
       <c r="G537">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H537" t="s">
@@ -22291,7 +22031,6 @@
         <v>74</v>
       </c>
       <c r="G538">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H538" t="s">
@@ -22333,7 +22072,6 @@
         <v>74</v>
       </c>
       <c r="G539">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H539" t="s">
@@ -22375,7 +22113,6 @@
         <v>74</v>
       </c>
       <c r="G540">
-        <f t="shared" ref="G540:G603" si="9">IF(F540="NA",0,1)</f>
         <v>1</v>
       </c>
       <c r="H540" t="s">
@@ -22417,7 +22154,6 @@
         <v>74</v>
       </c>
       <c r="G541">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H541" t="s">
@@ -22459,7 +22195,6 @@
         <v>74</v>
       </c>
       <c r="G542">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H542" t="s">
@@ -22501,7 +22236,6 @@
         <v>74</v>
       </c>
       <c r="G543">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H543" t="s">
@@ -22543,7 +22277,6 @@
         <v>74</v>
       </c>
       <c r="G544">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H544" t="s">
@@ -22585,7 +22318,6 @@
         <v>74</v>
       </c>
       <c r="G545">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H545" t="s">
@@ -22627,7 +22359,6 @@
         <v>74</v>
       </c>
       <c r="G546">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H546" t="s">
@@ -22669,7 +22400,6 @@
         <v>74</v>
       </c>
       <c r="G547">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H547" t="s">
@@ -22711,7 +22441,6 @@
         <v>74</v>
       </c>
       <c r="G548">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H548" t="s">
@@ -22753,7 +22482,6 @@
         <v>74</v>
       </c>
       <c r="G549">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H549" t="s">
@@ -22795,7 +22523,6 @@
         <v>74</v>
       </c>
       <c r="G550">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H550" t="s">
@@ -22837,7 +22564,6 @@
         <v>74</v>
       </c>
       <c r="G551">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H551" t="s">
@@ -22879,7 +22605,6 @@
         <v>74</v>
       </c>
       <c r="G552">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H552" t="s">
@@ -22921,7 +22646,6 @@
         <v>74</v>
       </c>
       <c r="G553">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H553" t="s">
@@ -22963,7 +22687,6 @@
         <v>77</v>
       </c>
       <c r="G554">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H554" t="s">
@@ -23005,7 +22728,6 @@
         <v>77</v>
       </c>
       <c r="G555">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H555" t="s">
@@ -23047,7 +22769,6 @@
         <v>77</v>
       </c>
       <c r="G556">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H556" t="s">
@@ -23089,7 +22810,6 @@
         <v>77</v>
       </c>
       <c r="G557">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H557" t="s">
@@ -23131,7 +22851,6 @@
         <v>77</v>
       </c>
       <c r="G558">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H558" t="s">
@@ -23173,7 +22892,6 @@
         <v>77</v>
       </c>
       <c r="G559">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H559" t="s">
@@ -23215,7 +22933,6 @@
         <v>77</v>
       </c>
       <c r="G560">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H560" t="s">
@@ -23257,7 +22974,6 @@
         <v>77</v>
       </c>
       <c r="G561">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H561" t="s">
@@ -23299,7 +23015,6 @@
         <v>77</v>
       </c>
       <c r="G562">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H562" t="s">
@@ -23341,7 +23056,6 @@
         <v>77</v>
       </c>
       <c r="G563">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H563" t="s">
@@ -23383,7 +23097,6 @@
         <v>77</v>
       </c>
       <c r="G564">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H564" t="s">
@@ -23425,7 +23138,6 @@
         <v>77</v>
       </c>
       <c r="G565">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H565" t="s">
@@ -23467,7 +23179,6 @@
         <v>77</v>
       </c>
       <c r="G566">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H566" t="s">
@@ -23509,7 +23220,6 @@
         <v>77</v>
       </c>
       <c r="G567">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H567" t="s">
@@ -23551,7 +23261,6 @@
         <v>77</v>
       </c>
       <c r="G568">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H568" t="s">
@@ -23593,7 +23302,6 @@
         <v>77</v>
       </c>
       <c r="G569">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H569" t="s">
@@ -23635,7 +23343,6 @@
         <v>77</v>
       </c>
       <c r="G570">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H570" t="s">
@@ -23677,7 +23384,6 @@
         <v>77</v>
       </c>
       <c r="G571">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H571" t="s">
@@ -23719,7 +23425,6 @@
         <v>77</v>
       </c>
       <c r="G572">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H572" t="s">
@@ -23761,7 +23466,6 @@
         <v>77</v>
       </c>
       <c r="G573">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H573" t="s">
@@ -23803,7 +23507,6 @@
         <v>77</v>
       </c>
       <c r="G574">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H574" t="s">
@@ -23845,7 +23548,6 @@
         <v>77</v>
       </c>
       <c r="G575">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H575" t="s">
@@ -23887,7 +23589,6 @@
         <v>77</v>
       </c>
       <c r="G576">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H576" t="s">
@@ -23929,7 +23630,6 @@
         <v>77</v>
       </c>
       <c r="G577">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H577" t="s">
@@ -23971,7 +23671,6 @@
         <v>77</v>
       </c>
       <c r="G578">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H578" t="s">
@@ -24013,7 +23712,6 @@
         <v>77</v>
       </c>
       <c r="G579">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H579" t="s">
@@ -24055,7 +23753,6 @@
         <v>77</v>
       </c>
       <c r="G580">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H580" t="s">
@@ -24097,7 +23794,6 @@
         <v>77</v>
       </c>
       <c r="G581">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H581" t="s">
@@ -24139,7 +23835,6 @@
         <v>77</v>
       </c>
       <c r="G582">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H582" t="s">
@@ -24181,7 +23876,6 @@
         <v>77</v>
       </c>
       <c r="G583">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H583" t="s">
@@ -24223,7 +23917,6 @@
         <v>77</v>
       </c>
       <c r="G584">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H584" t="s">
@@ -24265,7 +23958,6 @@
         <v>77</v>
       </c>
       <c r="G585">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H585" t="s">
@@ -24307,7 +23999,6 @@
         <v>77</v>
       </c>
       <c r="G586">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H586" t="s">
@@ -24349,7 +24040,6 @@
         <v>77</v>
       </c>
       <c r="G587">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H587" t="s">
@@ -24391,7 +24081,6 @@
         <v>77</v>
       </c>
       <c r="G588">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H588" t="s">
@@ -24433,7 +24122,6 @@
         <v>77</v>
       </c>
       <c r="G589">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H589" t="s">
@@ -24475,7 +24163,6 @@
         <v>77</v>
       </c>
       <c r="G590">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H590" t="s">
@@ -24517,7 +24204,6 @@
         <v>77</v>
       </c>
       <c r="G591">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H591" t="s">
@@ -24559,7 +24245,6 @@
         <v>77</v>
       </c>
       <c r="G592">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H592" t="s">
@@ -24601,7 +24286,6 @@
         <v>77</v>
       </c>
       <c r="G593">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H593" t="s">
@@ -24643,7 +24327,6 @@
         <v>77</v>
       </c>
       <c r="G594">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H594" t="s">
@@ -24685,7 +24368,6 @@
         <v>77</v>
       </c>
       <c r="G595">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H595" t="s">
@@ -24727,7 +24409,6 @@
         <v>77</v>
       </c>
       <c r="G596">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H596" t="s">
@@ -24769,7 +24450,6 @@
         <v>77</v>
       </c>
       <c r="G597">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H597" t="s">
@@ -24811,7 +24491,6 @@
         <v>77</v>
       </c>
       <c r="G598">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H598" t="s">
@@ -24853,7 +24532,6 @@
         <v>77</v>
       </c>
       <c r="G599">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H599" t="s">
@@ -24895,7 +24573,6 @@
         <v>74</v>
       </c>
       <c r="G600">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H600" t="s">
@@ -24937,7 +24614,6 @@
         <v>74</v>
       </c>
       <c r="G601">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H601" t="s">
@@ -24979,7 +24655,6 @@
         <v>74</v>
       </c>
       <c r="G602">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H602" t="s">
@@ -25021,7 +24696,6 @@
         <v>74</v>
       </c>
       <c r="G603">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H603" t="s">
@@ -25063,7 +24737,6 @@
         <v>74</v>
       </c>
       <c r="G604">
-        <f t="shared" ref="G604:G667" si="10">IF(F604="NA",0,1)</f>
         <v>1</v>
       </c>
       <c r="H604" t="s">
@@ -25105,7 +24778,6 @@
         <v>74</v>
       </c>
       <c r="G605">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H605" t="s">
@@ -25147,7 +24819,6 @@
         <v>74</v>
       </c>
       <c r="G606">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H606" t="s">
@@ -25189,7 +24860,6 @@
         <v>74</v>
       </c>
       <c r="G607">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H607" t="s">
@@ -25231,7 +24901,6 @@
         <v>74</v>
       </c>
       <c r="G608">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H608" t="s">
@@ -25273,7 +24942,6 @@
         <v>74</v>
       </c>
       <c r="G609">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H609" t="s">
@@ -25315,7 +24983,6 @@
         <v>74</v>
       </c>
       <c r="G610">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H610" t="s">
@@ -25357,7 +25024,6 @@
         <v>74</v>
       </c>
       <c r="G611">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H611" t="s">
@@ -25399,7 +25065,6 @@
         <v>74</v>
       </c>
       <c r="G612">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H612" t="s">
@@ -25441,7 +25106,6 @@
         <v>74</v>
       </c>
       <c r="G613">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H613" t="s">
@@ -25483,7 +25147,6 @@
         <v>74</v>
       </c>
       <c r="G614">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H614" t="s">
@@ -25525,7 +25188,6 @@
         <v>74</v>
       </c>
       <c r="G615">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H615" t="s">
@@ -25567,7 +25229,6 @@
         <v>74</v>
       </c>
       <c r="G616">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H616" t="s">
@@ -25609,7 +25270,6 @@
         <v>74</v>
       </c>
       <c r="G617">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H617" t="s">
@@ -25651,7 +25311,6 @@
         <v>74</v>
       </c>
       <c r="G618">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H618" t="s">
@@ -25693,7 +25352,6 @@
         <v>74</v>
       </c>
       <c r="G619">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H619" t="s">
@@ -25735,7 +25393,6 @@
         <v>74</v>
       </c>
       <c r="G620">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H620" t="s">
@@ -25777,7 +25434,6 @@
         <v>74</v>
       </c>
       <c r="G621">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H621" t="s">
@@ -25819,7 +25475,6 @@
         <v>74</v>
       </c>
       <c r="G622">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H622" t="s">
@@ -25861,7 +25516,6 @@
         <v>77</v>
       </c>
       <c r="G623">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H623" t="s">
@@ -25903,7 +25557,6 @@
         <v>77</v>
       </c>
       <c r="G624">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H624" t="s">
@@ -25945,7 +25598,6 @@
         <v>77</v>
       </c>
       <c r="G625">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H625" t="s">
@@ -25987,7 +25639,6 @@
         <v>77</v>
       </c>
       <c r="G626">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H626" t="s">
@@ -26029,7 +25680,6 @@
         <v>77</v>
       </c>
       <c r="G627">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H627" t="s">
@@ -26071,7 +25721,6 @@
         <v>77</v>
       </c>
       <c r="G628">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H628" t="s">
@@ -26113,7 +25762,6 @@
         <v>77</v>
       </c>
       <c r="G629">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H629" t="s">
@@ -26155,7 +25803,6 @@
         <v>77</v>
       </c>
       <c r="G630">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H630" t="s">
@@ -26197,7 +25844,6 @@
         <v>77</v>
       </c>
       <c r="G631">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H631" t="s">
@@ -26239,7 +25885,6 @@
         <v>77</v>
       </c>
       <c r="G632">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H632" t="s">
@@ -26281,7 +25926,6 @@
         <v>77</v>
       </c>
       <c r="G633">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H633" t="s">
@@ -26323,7 +25967,6 @@
         <v>77</v>
       </c>
       <c r="G634">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H634" t="s">
@@ -26365,7 +26008,6 @@
         <v>77</v>
       </c>
       <c r="G635">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H635" t="s">
@@ -26407,7 +26049,6 @@
         <v>77</v>
       </c>
       <c r="G636">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H636" t="s">
@@ -26449,7 +26090,6 @@
         <v>77</v>
       </c>
       <c r="G637">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H637" t="s">
@@ -26491,7 +26131,6 @@
         <v>77</v>
       </c>
       <c r="G638">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H638" t="s">
@@ -26533,7 +26172,6 @@
         <v>77</v>
       </c>
       <c r="G639">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H639" t="s">
@@ -26575,7 +26213,6 @@
         <v>77</v>
       </c>
       <c r="G640">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H640" t="s">
@@ -26617,7 +26254,6 @@
         <v>77</v>
       </c>
       <c r="G641">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H641" t="s">
@@ -26659,7 +26295,6 @@
         <v>77</v>
       </c>
       <c r="G642">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H642" t="s">
@@ -26701,7 +26336,6 @@
         <v>77</v>
       </c>
       <c r="G643">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H643" t="s">
@@ -26743,7 +26377,6 @@
         <v>77</v>
       </c>
       <c r="G644">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H644" t="s">
@@ -26785,7 +26418,6 @@
         <v>77</v>
       </c>
       <c r="G645">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H645" t="s">
@@ -26827,7 +26459,6 @@
         <v>75</v>
       </c>
       <c r="G646">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H646" t="s">
@@ -26869,7 +26500,6 @@
         <v>75</v>
       </c>
       <c r="G647">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H647" t="s">
@@ -26911,7 +26541,6 @@
         <v>75</v>
       </c>
       <c r="G648">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H648" t="s">
@@ -26953,7 +26582,6 @@
         <v>75</v>
       </c>
       <c r="G649">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H649" t="s">
@@ -26995,7 +26623,6 @@
         <v>75</v>
       </c>
       <c r="G650">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H650" t="s">
@@ -27037,7 +26664,6 @@
         <v>75</v>
       </c>
       <c r="G651">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H651" t="s">
@@ -27079,7 +26705,6 @@
         <v>75</v>
       </c>
       <c r="G652">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H652" t="s">
@@ -27121,7 +26746,6 @@
         <v>75</v>
       </c>
       <c r="G653">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H653" t="s">
@@ -27163,7 +26787,6 @@
         <v>75</v>
       </c>
       <c r="G654">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H654" t="s">
@@ -27205,7 +26828,6 @@
         <v>75</v>
       </c>
       <c r="G655">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H655" t="s">
@@ -27247,7 +26869,6 @@
         <v>75</v>
       </c>
       <c r="G656">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H656" t="s">
@@ -27289,7 +26910,6 @@
         <v>75</v>
       </c>
       <c r="G657">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H657" t="s">
@@ -27331,7 +26951,6 @@
         <v>75</v>
       </c>
       <c r="G658">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H658" t="s">
@@ -27373,7 +26992,6 @@
         <v>75</v>
       </c>
       <c r="G659">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H659" t="s">
@@ -27415,7 +27033,6 @@
         <v>75</v>
       </c>
       <c r="G660">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H660" t="s">
@@ -27457,7 +27074,6 @@
         <v>75</v>
       </c>
       <c r="G661">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H661" t="s">
@@ -27499,7 +27115,6 @@
         <v>75</v>
       </c>
       <c r="G662">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H662" t="s">
@@ -27541,7 +27156,6 @@
         <v>75</v>
       </c>
       <c r="G663">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H663" t="s">
@@ -27583,7 +27197,6 @@
         <v>75</v>
       </c>
       <c r="G664">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H664" t="s">
@@ -27625,7 +27238,6 @@
         <v>75</v>
       </c>
       <c r="G665">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H665" t="s">
@@ -27667,7 +27279,6 @@
         <v>75</v>
       </c>
       <c r="G666">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H666" t="s">
@@ -27709,7 +27320,6 @@
         <v>75</v>
       </c>
       <c r="G667">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H667" t="s">
@@ -27751,7 +27361,6 @@
         <v>75</v>
       </c>
       <c r="G668">
-        <f t="shared" ref="G668:G691" si="11">IF(F668="NA",0,1)</f>
         <v>1</v>
       </c>
       <c r="H668" t="s">
@@ -27793,7 +27402,6 @@
         <v>77</v>
       </c>
       <c r="G669">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H669" t="s">
@@ -27835,7 +27443,6 @@
         <v>77</v>
       </c>
       <c r="G670">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H670" t="s">
@@ -27877,7 +27484,6 @@
         <v>77</v>
       </c>
       <c r="G671">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H671" t="s">
@@ -27919,7 +27525,6 @@
         <v>77</v>
       </c>
       <c r="G672">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H672" t="s">
@@ -27961,7 +27566,6 @@
         <v>77</v>
       </c>
       <c r="G673">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H673" t="s">
@@ -28003,7 +27607,6 @@
         <v>77</v>
       </c>
       <c r="G674">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H674" t="s">
@@ -28045,7 +27648,6 @@
         <v>77</v>
       </c>
       <c r="G675">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H675" t="s">
@@ -28087,7 +27689,6 @@
         <v>77</v>
       </c>
       <c r="G676">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H676" t="s">
@@ -28129,7 +27730,6 @@
         <v>77</v>
       </c>
       <c r="G677">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H677" t="s">
@@ -28171,7 +27771,6 @@
         <v>77</v>
       </c>
       <c r="G678">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H678" t="s">
@@ -28213,7 +27812,6 @@
         <v>77</v>
       </c>
       <c r="G679">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H679" t="s">
@@ -28255,7 +27853,6 @@
         <v>77</v>
       </c>
       <c r="G680">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H680" t="s">
@@ -28297,7 +27894,6 @@
         <v>77</v>
       </c>
       <c r="G681">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H681" t="s">
@@ -28339,7 +27935,6 @@
         <v>77</v>
       </c>
       <c r="G682">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H682" t="s">
@@ -28381,7 +27976,6 @@
         <v>77</v>
       </c>
       <c r="G683">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H683" t="s">
@@ -28423,7 +28017,6 @@
         <v>77</v>
       </c>
       <c r="G684">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H684" t="s">
@@ -28465,7 +28058,6 @@
         <v>77</v>
       </c>
       <c r="G685">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H685" t="s">
@@ -28507,7 +28099,6 @@
         <v>77</v>
       </c>
       <c r="G686">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H686" t="s">
@@ -28549,7 +28140,6 @@
         <v>77</v>
       </c>
       <c r="G687">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H687" t="s">
@@ -28591,7 +28181,6 @@
         <v>77</v>
       </c>
       <c r="G688">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H688" t="s">
@@ -28633,7 +28222,6 @@
         <v>77</v>
       </c>
       <c r="G689">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H689" t="s">
@@ -28675,7 +28263,6 @@
         <v>77</v>
       </c>
       <c r="G690">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H690" t="s">
@@ -28717,7 +28304,6 @@
         <v>77</v>
       </c>
       <c r="G691">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H691" t="s">

--- a/Google Earth Engine/NDWI_zones_hum_buf.xlsx
+++ b/Google Earth Engine/NDWI_zones_hum_buf.xlsx
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117:E139"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6945,6 +6945,12 @@
       <c r="C140" t="s">
         <v>6</v>
       </c>
+      <c r="D140">
+        <v>1999</v>
+      </c>
+      <c r="E140">
+        <v>-0.108839189331926</v>
+      </c>
       <c r="F140" t="s">
         <v>77</v>
       </c>
@@ -6980,6 +6986,12 @@
       <c r="C141" t="s">
         <v>6</v>
       </c>
+      <c r="D141">
+        <v>2000</v>
+      </c>
+      <c r="E141">
+        <v>-0.13184307928308001</v>
+      </c>
       <c r="F141" t="s">
         <v>77</v>
       </c>
@@ -7015,6 +7027,12 @@
       <c r="C142" t="s">
         <v>6</v>
       </c>
+      <c r="D142">
+        <v>2001</v>
+      </c>
+      <c r="E142">
+        <v>-0.105976739432634</v>
+      </c>
       <c r="F142" t="s">
         <v>77</v>
       </c>
@@ -7050,6 +7068,12 @@
       <c r="C143" t="s">
         <v>6</v>
       </c>
+      <c r="D143">
+        <v>2002</v>
+      </c>
+      <c r="E143">
+        <v>-0.107912501730624</v>
+      </c>
       <c r="F143" t="s">
         <v>77</v>
       </c>
@@ -7085,6 +7109,12 @@
       <c r="C144" t="s">
         <v>6</v>
       </c>
+      <c r="D144">
+        <v>2003</v>
+      </c>
+      <c r="E144">
+        <v>-9.0664592500789301E-2</v>
+      </c>
       <c r="F144" t="s">
         <v>77</v>
       </c>
@@ -7120,6 +7150,12 @@
       <c r="C145" t="s">
         <v>6</v>
       </c>
+      <c r="D145">
+        <v>2004</v>
+      </c>
+      <c r="E145">
+        <v>-0.124154193298701</v>
+      </c>
       <c r="F145" t="s">
         <v>77</v>
       </c>
@@ -7155,6 +7191,12 @@
       <c r="C146" t="s">
         <v>6</v>
       </c>
+      <c r="D146">
+        <v>2005</v>
+      </c>
+      <c r="E146">
+        <v>-0.102711123666733</v>
+      </c>
       <c r="F146" t="s">
         <v>77</v>
       </c>
@@ -7190,6 +7232,12 @@
       <c r="C147" t="s">
         <v>6</v>
       </c>
+      <c r="D147">
+        <v>2006</v>
+      </c>
+      <c r="E147">
+        <v>-0.114167922163906</v>
+      </c>
       <c r="F147" t="s">
         <v>77</v>
       </c>
@@ -7225,6 +7273,12 @@
       <c r="C148" t="s">
         <v>6</v>
       </c>
+      <c r="D148">
+        <v>2007</v>
+      </c>
+      <c r="E148">
+        <v>-0.13368530956678401</v>
+      </c>
       <c r="F148" t="s">
         <v>77</v>
       </c>
@@ -7260,6 +7314,12 @@
       <c r="C149" t="s">
         <v>6</v>
       </c>
+      <c r="D149">
+        <v>2008</v>
+      </c>
+      <c r="E149">
+        <v>-0.112305512280229</v>
+      </c>
       <c r="F149" t="s">
         <v>77</v>
       </c>
@@ -7295,6 +7355,12 @@
       <c r="C150" t="s">
         <v>6</v>
       </c>
+      <c r="D150">
+        <v>2009</v>
+      </c>
+      <c r="E150">
+        <v>-0.135696116288515</v>
+      </c>
       <c r="F150" t="s">
         <v>77</v>
       </c>
@@ -7330,6 +7396,12 @@
       <c r="C151" t="s">
         <v>6</v>
       </c>
+      <c r="D151">
+        <v>2010</v>
+      </c>
+      <c r="E151">
+        <v>-0.14934041252809199</v>
+      </c>
       <c r="F151" t="s">
         <v>77</v>
       </c>
@@ -7365,6 +7437,12 @@
       <c r="C152" t="s">
         <v>6</v>
       </c>
+      <c r="D152">
+        <v>2011</v>
+      </c>
+      <c r="E152">
+        <v>-0.105870608827893</v>
+      </c>
       <c r="F152" t="s">
         <v>77</v>
       </c>
@@ -7400,6 +7478,12 @@
       <c r="C153" t="s">
         <v>6</v>
       </c>
+      <c r="D153">
+        <v>2012</v>
+      </c>
+      <c r="E153">
+        <v>-0.11425575227368399</v>
+      </c>
       <c r="F153" t="s">
         <v>77</v>
       </c>
@@ -7435,6 +7519,12 @@
       <c r="C154" t="s">
         <v>6</v>
       </c>
+      <c r="D154">
+        <v>2013</v>
+      </c>
+      <c r="E154">
+        <v>-0.12804877038314799</v>
+      </c>
       <c r="F154" t="s">
         <v>77</v>
       </c>
@@ -7470,6 +7560,12 @@
       <c r="C155" t="s">
         <v>6</v>
       </c>
+      <c r="D155">
+        <v>2014</v>
+      </c>
+      <c r="E155">
+        <v>-0.12796737824562801</v>
+      </c>
       <c r="F155" t="s">
         <v>77</v>
       </c>
@@ -7505,6 +7601,12 @@
       <c r="C156" t="s">
         <v>6</v>
       </c>
+      <c r="D156">
+        <v>2015</v>
+      </c>
+      <c r="E156">
+        <v>-0.116187983768672</v>
+      </c>
       <c r="F156" t="s">
         <v>77</v>
       </c>
@@ -7540,6 +7642,12 @@
       <c r="C157" t="s">
         <v>6</v>
       </c>
+      <c r="D157">
+        <v>2016</v>
+      </c>
+      <c r="E157">
+        <v>-0.10247965699244201</v>
+      </c>
       <c r="F157" t="s">
         <v>77</v>
       </c>
@@ -7575,6 +7683,12 @@
       <c r="C158" t="s">
         <v>6</v>
       </c>
+      <c r="D158">
+        <v>2017</v>
+      </c>
+      <c r="E158">
+        <v>-0.104463509249538</v>
+      </c>
       <c r="F158" t="s">
         <v>77</v>
       </c>
@@ -7610,6 +7724,12 @@
       <c r="C159" t="s">
         <v>6</v>
       </c>
+      <c r="D159">
+        <v>2018</v>
+      </c>
+      <c r="E159">
+        <v>-0.108817340595651</v>
+      </c>
       <c r="F159" t="s">
         <v>77</v>
       </c>
@@ -7645,6 +7765,12 @@
       <c r="C160" t="s">
         <v>6</v>
       </c>
+      <c r="D160">
+        <v>2019</v>
+      </c>
+      <c r="E160">
+        <v>-0.12594087121427699</v>
+      </c>
       <c r="F160" t="s">
         <v>77</v>
       </c>
@@ -7680,6 +7806,12 @@
       <c r="C161" t="s">
         <v>6</v>
       </c>
+      <c r="D161">
+        <v>2020</v>
+      </c>
+      <c r="E161">
+        <v>-0.122098814587754</v>
+      </c>
       <c r="F161" t="s">
         <v>77</v>
       </c>
@@ -7715,6 +7847,12 @@
       <c r="C162" t="s">
         <v>6</v>
       </c>
+      <c r="D162">
+        <v>2021</v>
+      </c>
+      <c r="E162">
+        <v>-0.11426762032085901</v>
+      </c>
       <c r="F162" t="s">
         <v>77</v>
       </c>
@@ -7750,6 +7888,12 @@
       <c r="C163" t="s">
         <v>6</v>
       </c>
+      <c r="D163">
+        <v>1999</v>
+      </c>
+      <c r="E163">
+        <v>-9.27959741394528E-2</v>
+      </c>
       <c r="F163" t="s">
         <v>75</v>
       </c>
@@ -7785,6 +7929,12 @@
       <c r="C164" t="s">
         <v>6</v>
       </c>
+      <c r="D164">
+        <v>2000</v>
+      </c>
+      <c r="E164">
+        <v>-9.0883974157203604E-2</v>
+      </c>
       <c r="F164" t="s">
         <v>75</v>
       </c>
@@ -7820,6 +7970,12 @@
       <c r="C165" t="s">
         <v>6</v>
       </c>
+      <c r="D165">
+        <v>2001</v>
+      </c>
+      <c r="E165">
+        <v>-9.2498682418718906E-2</v>
+      </c>
       <c r="F165" t="s">
         <v>75</v>
       </c>
@@ -7855,6 +8011,12 @@
       <c r="C166" t="s">
         <v>6</v>
       </c>
+      <c r="D166">
+        <v>2002</v>
+      </c>
+      <c r="E166">
+        <v>-8.6813909659085503E-2</v>
+      </c>
       <c r="F166" t="s">
         <v>75</v>
       </c>
@@ -7890,6 +8052,12 @@
       <c r="C167" t="s">
         <v>6</v>
       </c>
+      <c r="D167">
+        <v>2003</v>
+      </c>
+      <c r="E167">
+        <v>-8.6765315006635604E-2</v>
+      </c>
       <c r="F167" t="s">
         <v>75</v>
       </c>
@@ -7925,6 +8093,12 @@
       <c r="C168" t="s">
         <v>6</v>
       </c>
+      <c r="D168">
+        <v>2004</v>
+      </c>
+      <c r="E168">
+        <v>-0.100471445242284</v>
+      </c>
       <c r="F168" t="s">
         <v>75</v>
       </c>
@@ -7960,6 +8134,12 @@
       <c r="C169" t="s">
         <v>6</v>
       </c>
+      <c r="D169">
+        <v>2005</v>
+      </c>
+      <c r="E169">
+        <v>-9.4822406174482898E-2</v>
+      </c>
       <c r="F169" t="s">
         <v>75</v>
       </c>
@@ -7995,6 +8175,12 @@
       <c r="C170" t="s">
         <v>6</v>
       </c>
+      <c r="D170">
+        <v>2006</v>
+      </c>
+      <c r="E170">
+        <v>-9.8615292587056702E-2</v>
+      </c>
       <c r="F170" t="s">
         <v>75</v>
       </c>
@@ -8030,6 +8216,12 @@
       <c r="C171" t="s">
         <v>6</v>
       </c>
+      <c r="D171">
+        <v>2007</v>
+      </c>
+      <c r="E171">
+        <v>-9.86500573026943E-2</v>
+      </c>
       <c r="F171" t="s">
         <v>75</v>
       </c>
@@ -8065,6 +8257,12 @@
       <c r="C172" t="s">
         <v>6</v>
       </c>
+      <c r="D172">
+        <v>2008</v>
+      </c>
+      <c r="E172">
+        <v>-0.10452524102651101</v>
+      </c>
       <c r="F172" t="s">
         <v>75</v>
       </c>
@@ -8100,6 +8298,12 @@
       <c r="C173" t="s">
         <v>6</v>
       </c>
+      <c r="D173">
+        <v>2009</v>
+      </c>
+      <c r="E173">
+        <v>-0.100411191582679</v>
+      </c>
       <c r="F173" t="s">
         <v>75</v>
       </c>
@@ -8135,6 +8339,12 @@
       <c r="C174" t="s">
         <v>6</v>
       </c>
+      <c r="D174">
+        <v>2010</v>
+      </c>
+      <c r="E174">
+        <v>-0.116069675190242</v>
+      </c>
       <c r="F174" t="s">
         <v>75</v>
       </c>
@@ -8170,6 +8380,12 @@
       <c r="C175" t="s">
         <v>6</v>
       </c>
+      <c r="D175">
+        <v>2011</v>
+      </c>
+      <c r="E175">
+        <v>-0.108699941274347</v>
+      </c>
       <c r="F175" t="s">
         <v>75</v>
       </c>
@@ -8205,6 +8421,12 @@
       <c r="C176" t="s">
         <v>6</v>
       </c>
+      <c r="D176">
+        <v>2012</v>
+      </c>
+      <c r="E176">
+        <v>-0.10257039121183199</v>
+      </c>
       <c r="F176" t="s">
         <v>75</v>
       </c>
@@ -8240,6 +8462,12 @@
       <c r="C177" t="s">
         <v>6</v>
       </c>
+      <c r="D177">
+        <v>2013</v>
+      </c>
+      <c r="E177">
+        <v>-0.110198965773549</v>
+      </c>
       <c r="F177" t="s">
         <v>75</v>
       </c>
@@ -8275,6 +8503,12 @@
       <c r="C178" t="s">
         <v>6</v>
       </c>
+      <c r="D178">
+        <v>2014</v>
+      </c>
+      <c r="E178">
+        <v>-0.106486666127594</v>
+      </c>
       <c r="F178" t="s">
         <v>75</v>
       </c>
@@ -8310,6 +8544,12 @@
       <c r="C179" t="s">
         <v>6</v>
       </c>
+      <c r="D179">
+        <v>2015</v>
+      </c>
+      <c r="E179">
+        <v>-0.106325078478347</v>
+      </c>
       <c r="F179" t="s">
         <v>75</v>
       </c>
@@ -8345,6 +8585,12 @@
       <c r="C180" t="s">
         <v>6</v>
       </c>
+      <c r="D180">
+        <v>2016</v>
+      </c>
+      <c r="E180">
+        <v>-0.112478539370165</v>
+      </c>
       <c r="F180" t="s">
         <v>75</v>
       </c>
@@ -8380,6 +8626,12 @@
       <c r="C181" t="s">
         <v>6</v>
       </c>
+      <c r="D181">
+        <v>2017</v>
+      </c>
+      <c r="E181">
+        <v>-0.108482050999688</v>
+      </c>
       <c r="F181" t="s">
         <v>75</v>
       </c>
@@ -8415,6 +8667,12 @@
       <c r="C182" t="s">
         <v>6</v>
       </c>
+      <c r="D182">
+        <v>2018</v>
+      </c>
+      <c r="E182">
+        <v>-0.106407249701213</v>
+      </c>
       <c r="F182" t="s">
         <v>75</v>
       </c>
@@ -8450,6 +8708,12 @@
       <c r="C183" t="s">
         <v>6</v>
       </c>
+      <c r="D183">
+        <v>2019</v>
+      </c>
+      <c r="E183">
+        <v>-0.106329380017659</v>
+      </c>
       <c r="F183" t="s">
         <v>75</v>
       </c>
@@ -8485,6 +8749,12 @@
       <c r="C184" t="s">
         <v>6</v>
       </c>
+      <c r="D184">
+        <v>2020</v>
+      </c>
+      <c r="E184">
+        <v>-0.10445414243913501</v>
+      </c>
       <c r="F184" t="s">
         <v>75</v>
       </c>
@@ -8520,6 +8790,12 @@
       <c r="C185" t="s">
         <v>6</v>
       </c>
+      <c r="D185">
+        <v>2021</v>
+      </c>
+      <c r="E185">
+        <v>-0.100719788811688</v>
+      </c>
       <c r="F185" t="s">
         <v>75</v>
       </c>
@@ -8555,6 +8831,12 @@
       <c r="C186" t="s">
         <v>6</v>
       </c>
+      <c r="D186">
+        <v>1999</v>
+      </c>
+      <c r="E186">
+        <v>-7.66291846113933E-2</v>
+      </c>
       <c r="F186" t="s">
         <v>74</v>
       </c>
@@ -8590,6 +8872,12 @@
       <c r="C187" t="s">
         <v>6</v>
       </c>
+      <c r="D187">
+        <v>2000</v>
+      </c>
+      <c r="E187">
+        <v>-8.04686288051496E-2</v>
+      </c>
       <c r="F187" t="s">
         <v>74</v>
       </c>
@@ -8625,6 +8913,12 @@
       <c r="C188" t="s">
         <v>6</v>
       </c>
+      <c r="D188">
+        <v>2001</v>
+      </c>
+      <c r="E188">
+        <v>-8.8825811090478601E-2</v>
+      </c>
       <c r="F188" t="s">
         <v>74</v>
       </c>
@@ -8660,6 +8954,12 @@
       <c r="C189" t="s">
         <v>6</v>
       </c>
+      <c r="D189">
+        <v>2002</v>
+      </c>
+      <c r="E189">
+        <v>-8.6370431667189301E-2</v>
+      </c>
       <c r="F189" t="s">
         <v>74</v>
       </c>
@@ -8695,6 +8995,12 @@
       <c r="C190" t="s">
         <v>6</v>
       </c>
+      <c r="D190">
+        <v>2003</v>
+      </c>
+      <c r="E190">
+        <v>-9.8705625289226495E-2</v>
+      </c>
       <c r="F190" t="s">
         <v>74</v>
       </c>
@@ -8730,6 +9036,12 @@
       <c r="C191" t="s">
         <v>6</v>
       </c>
+      <c r="D191">
+        <v>2004</v>
+      </c>
+      <c r="E191">
+        <v>-0.100594265396826</v>
+      </c>
       <c r="F191" t="s">
         <v>74</v>
       </c>
@@ -8765,6 +9077,12 @@
       <c r="C192" t="s">
         <v>6</v>
       </c>
+      <c r="D192">
+        <v>2005</v>
+      </c>
+      <c r="E192">
+        <v>-0.10056848467709199</v>
+      </c>
       <c r="F192" t="s">
         <v>74</v>
       </c>
@@ -8800,6 +9118,12 @@
       <c r="C193" t="s">
         <v>6</v>
       </c>
+      <c r="D193">
+        <v>2006</v>
+      </c>
+      <c r="E193">
+        <v>-9.8641995843064795E-2</v>
+      </c>
       <c r="F193" t="s">
         <v>74</v>
       </c>
@@ -8835,6 +9159,12 @@
       <c r="C194" t="s">
         <v>6</v>
       </c>
+      <c r="D194">
+        <v>2007</v>
+      </c>
+      <c r="E194">
+        <v>-9.0873844131299703E-2</v>
+      </c>
       <c r="F194" t="s">
         <v>74</v>
       </c>
@@ -8870,6 +9200,12 @@
       <c r="C195" t="s">
         <v>6</v>
       </c>
+      <c r="D195">
+        <v>2008</v>
+      </c>
+      <c r="E195">
+        <v>-9.8608185879070498E-2</v>
+      </c>
       <c r="F195" t="s">
         <v>74</v>
       </c>
@@ -8905,6 +9241,12 @@
       <c r="C196" t="s">
         <v>6</v>
       </c>
+      <c r="D196">
+        <v>2009</v>
+      </c>
+      <c r="E196">
+        <v>-9.2803284302511502E-2</v>
+      </c>
       <c r="F196" t="s">
         <v>74</v>
       </c>
@@ -8940,6 +9282,12 @@
       <c r="C197" t="s">
         <v>6</v>
       </c>
+      <c r="D197">
+        <v>2010</v>
+      </c>
+      <c r="E197">
+        <v>-0.104467713979156</v>
+      </c>
       <c r="F197" t="s">
         <v>74</v>
       </c>
@@ -8975,6 +9323,12 @@
       <c r="C198" t="s">
         <v>6</v>
       </c>
+      <c r="D198">
+        <v>2011</v>
+      </c>
+      <c r="E198">
+        <v>-0.104418079336085</v>
+      </c>
       <c r="F198" t="s">
         <v>74</v>
       </c>
@@ -9010,6 +9364,12 @@
       <c r="C199" t="s">
         <v>6</v>
       </c>
+      <c r="D199">
+        <v>2012</v>
+      </c>
+      <c r="E199">
+        <v>-9.2720601605452105E-2</v>
+      </c>
       <c r="F199" t="s">
         <v>74</v>
       </c>
@@ -9045,6 +9405,12 @@
       <c r="C200" t="s">
         <v>6</v>
       </c>
+      <c r="D200">
+        <v>2013</v>
+      </c>
+      <c r="E200">
+        <v>-8.2993655544641304E-2</v>
+      </c>
       <c r="F200" t="s">
         <v>74</v>
       </c>
@@ -9080,6 +9446,12 @@
       <c r="C201" t="s">
         <v>6</v>
       </c>
+      <c r="D201">
+        <v>2014</v>
+      </c>
+      <c r="E201">
+        <v>-8.5018697455683107E-2</v>
+      </c>
       <c r="F201" t="s">
         <v>74</v>
       </c>
@@ -9115,6 +9487,12 @@
       <c r="C202" t="s">
         <v>6</v>
       </c>
+      <c r="D202">
+        <v>2015</v>
+      </c>
+      <c r="E202">
+        <v>-9.2780913589428499E-2</v>
+      </c>
       <c r="F202" t="s">
         <v>74</v>
       </c>
@@ -9150,6 +9528,12 @@
       <c r="C203" t="s">
         <v>6</v>
       </c>
+      <c r="D203">
+        <v>2016</v>
+      </c>
+      <c r="E203">
+        <v>-7.91566871785057E-2</v>
+      </c>
       <c r="F203" t="s">
         <v>74</v>
       </c>
@@ -9185,6 +9569,12 @@
       <c r="C204" t="s">
         <v>6</v>
       </c>
+      <c r="D204">
+        <v>2017</v>
+      </c>
+      <c r="E204">
+        <v>-9.6646548307334296E-2</v>
+      </c>
       <c r="F204" t="s">
         <v>74</v>
       </c>
@@ -9220,6 +9610,12 @@
       <c r="C205" t="s">
         <v>6</v>
       </c>
+      <c r="D205">
+        <v>2018</v>
+      </c>
+      <c r="E205">
+        <v>-9.8633047700493401E-2</v>
+      </c>
       <c r="F205" t="s">
         <v>74</v>
       </c>
@@ -9255,6 +9651,12 @@
       <c r="C206" t="s">
         <v>6</v>
       </c>
+      <c r="D206">
+        <v>2019</v>
+      </c>
+      <c r="E206">
+        <v>-8.9012690431247002E-2</v>
+      </c>
       <c r="F206" t="s">
         <v>74</v>
       </c>
@@ -9290,6 +9692,12 @@
       <c r="C207" t="s">
         <v>6</v>
       </c>
+      <c r="D207">
+        <v>2020</v>
+      </c>
+      <c r="E207">
+        <v>-8.6896332665469506E-2</v>
+      </c>
       <c r="F207" t="s">
         <v>74</v>
       </c>
@@ -9325,6 +9733,12 @@
       <c r="C208" t="s">
         <v>6</v>
       </c>
+      <c r="D208">
+        <v>2021</v>
+      </c>
+      <c r="E208">
+        <v>-8.8963750640122394E-2</v>
+      </c>
       <c r="F208" t="s">
         <v>74</v>
       </c>
@@ -9360,6 +9774,12 @@
       <c r="C209" t="s">
         <v>6</v>
       </c>
+      <c r="D209">
+        <v>1999</v>
+      </c>
+      <c r="E209">
+        <v>-5.5620989304597197E-2</v>
+      </c>
       <c r="F209" t="s">
         <v>77</v>
       </c>
@@ -9395,6 +9815,12 @@
       <c r="C210" t="s">
         <v>6</v>
       </c>
+      <c r="D210">
+        <v>2000</v>
+      </c>
+      <c r="E210">
+        <v>-5.98213233679524E-2</v>
+      </c>
       <c r="F210" t="s">
         <v>77</v>
       </c>
@@ -9430,6 +9856,12 @@
       <c r="C211" t="s">
         <v>6</v>
       </c>
+      <c r="D211">
+        <v>2001</v>
+      </c>
+      <c r="E211">
+        <v>-5.58792583126662E-2</v>
+      </c>
       <c r="F211" t="s">
         <v>77</v>
       </c>
@@ -9465,6 +9897,12 @@
       <c r="C212" t="s">
         <v>6</v>
       </c>
+      <c r="D212">
+        <v>2002</v>
+      </c>
+      <c r="E212">
+        <v>-5.71227543985139E-2</v>
+      </c>
       <c r="F212" t="s">
         <v>77</v>
       </c>
@@ -9500,6 +9938,12 @@
       <c r="C213" t="s">
         <v>6</v>
       </c>
+      <c r="D213">
+        <v>2003</v>
+      </c>
+      <c r="E213">
+        <v>-5.7586715912945202E-2</v>
+      </c>
       <c r="F213" t="s">
         <v>77</v>
       </c>
@@ -9535,6 +9979,12 @@
       <c r="C214" t="s">
         <v>6</v>
       </c>
+      <c r="D214">
+        <v>2004</v>
+      </c>
+      <c r="E214">
+        <v>-5.9752818143904103E-2</v>
+      </c>
       <c r="F214" t="s">
         <v>77</v>
       </c>
@@ -9570,6 +10020,12 @@
       <c r="C215" t="s">
         <v>6</v>
       </c>
+      <c r="D215">
+        <v>2005</v>
+      </c>
+      <c r="E215">
+        <v>-6.1474977122610498E-2</v>
+      </c>
       <c r="F215" t="s">
         <v>77</v>
       </c>
@@ -9605,6 +10061,12 @@
       <c r="C216" t="s">
         <v>6</v>
       </c>
+      <c r="D216">
+        <v>2006</v>
+      </c>
+      <c r="E216">
+        <v>-6.15457500473474E-2</v>
+      </c>
       <c r="F216" t="s">
         <v>77</v>
       </c>
@@ -9640,6 +10102,12 @@
       <c r="C217" t="s">
         <v>6</v>
       </c>
+      <c r="D217">
+        <v>2007</v>
+      </c>
+      <c r="E217">
+        <v>-5.7667949969655498E-2</v>
+      </c>
       <c r="F217" t="s">
         <v>77</v>
       </c>
@@ -9675,6 +10143,12 @@
       <c r="C218" t="s">
         <v>6</v>
       </c>
+      <c r="D218">
+        <v>2008</v>
+      </c>
+      <c r="E218">
+        <v>-5.77665198958182E-2</v>
+      </c>
       <c r="F218" t="s">
         <v>77</v>
       </c>
@@ -9710,6 +10184,12 @@
       <c r="C219" t="s">
         <v>6</v>
       </c>
+      <c r="D219">
+        <v>2009</v>
+      </c>
+      <c r="E219">
+        <v>-4.9967740035222197E-2</v>
+      </c>
       <c r="F219" t="s">
         <v>77</v>
       </c>
@@ -9745,6 +10225,12 @@
       <c r="C220" t="s">
         <v>6</v>
       </c>
+      <c r="D220">
+        <v>2010</v>
+      </c>
+      <c r="E220">
+        <v>-5.1784342006851898E-2</v>
+      </c>
       <c r="F220" t="s">
         <v>77</v>
       </c>
@@ -9780,6 +10266,12 @@
       <c r="C221" t="s">
         <v>6</v>
       </c>
+      <c r="D221">
+        <v>2011</v>
+      </c>
+      <c r="E221">
+        <v>-6.1473238691506303E-2</v>
+      </c>
       <c r="F221" t="s">
         <v>77</v>
       </c>
@@ -9815,6 +10307,12 @@
       <c r="C222" t="s">
         <v>6</v>
       </c>
+      <c r="D222">
+        <v>2012</v>
+      </c>
+      <c r="E222">
+        <v>-6.1552356747609102E-2</v>
+      </c>
       <c r="F222" t="s">
         <v>77</v>
       </c>
@@ -9850,6 +10348,12 @@
       <c r="C223" t="s">
         <v>6</v>
       </c>
+      <c r="D223">
+        <v>2013</v>
+      </c>
+      <c r="E223">
+        <v>-6.3476051454201099E-2</v>
+      </c>
       <c r="F223" t="s">
         <v>77</v>
       </c>
@@ -9885,6 +10389,12 @@
       <c r="C224" t="s">
         <v>6</v>
       </c>
+      <c r="D224">
+        <v>2014</v>
+      </c>
+      <c r="E224">
+        <v>-6.3558970416454405E-2</v>
+      </c>
       <c r="F224" t="s">
         <v>77</v>
       </c>
@@ -9920,6 +10430,12 @@
       <c r="C225" t="s">
         <v>6</v>
       </c>
+      <c r="D225">
+        <v>2015</v>
+      </c>
+      <c r="E225">
+        <v>-6.16759120464948E-2</v>
+      </c>
       <c r="F225" t="s">
         <v>77</v>
       </c>
@@ -9955,6 +10471,12 @@
       <c r="C226" t="s">
         <v>6</v>
       </c>
+      <c r="D226">
+        <v>2016</v>
+      </c>
+      <c r="E226">
+        <v>-6.1606958181640602E-2</v>
+      </c>
       <c r="F226" t="s">
         <v>77</v>
       </c>
@@ -9990,6 +10512,12 @@
       <c r="C227" t="s">
         <v>6</v>
       </c>
+      <c r="D227">
+        <v>2017</v>
+      </c>
+      <c r="E227">
+        <v>-5.7618186735104999E-2</v>
+      </c>
       <c r="F227" t="s">
         <v>77</v>
       </c>
@@ -10025,6 +10553,12 @@
       <c r="C228" t="s">
         <v>6</v>
       </c>
+      <c r="D228">
+        <v>2018</v>
+      </c>
+      <c r="E228">
+        <v>-6.3508416489693603E-2</v>
+      </c>
       <c r="F228" t="s">
         <v>77</v>
       </c>
@@ -10060,6 +10594,12 @@
       <c r="C229" t="s">
         <v>6</v>
       </c>
+      <c r="D229">
+        <v>2019</v>
+      </c>
+      <c r="E229">
+        <v>-5.5623727814110402E-2</v>
+      </c>
       <c r="F229" t="s">
         <v>77</v>
       </c>
@@ -10095,6 +10635,12 @@
       <c r="C230" t="s">
         <v>6</v>
       </c>
+      <c r="D230">
+        <v>2020</v>
+      </c>
+      <c r="E230">
+        <v>-5.9645578577238602E-2</v>
+      </c>
       <c r="F230" t="s">
         <v>77</v>
       </c>
@@ -10130,6 +10676,12 @@
       <c r="C231" t="s">
         <v>6</v>
       </c>
+      <c r="D231">
+        <v>2021</v>
+      </c>
+      <c r="E231">
+        <v>-6.3506323688839794E-2</v>
+      </c>
       <c r="F231" t="s">
         <v>77</v>
       </c>
@@ -10165,6 +10717,12 @@
       <c r="C232" t="s">
         <v>6</v>
       </c>
+      <c r="D232">
+        <v>1999</v>
+      </c>
+      <c r="E232">
+        <v>-0.11235188112880801</v>
+      </c>
       <c r="F232" t="s">
         <v>77</v>
       </c>
@@ -10200,6 +10758,12 @@
       <c r="C233" t="s">
         <v>6</v>
       </c>
+      <c r="D233">
+        <v>2000</v>
+      </c>
+      <c r="E233">
+        <v>-0.12007248165444</v>
+      </c>
       <c r="F233" t="s">
         <v>77</v>
       </c>
@@ -10235,6 +10799,12 @@
       <c r="C234" t="s">
         <v>6</v>
       </c>
+      <c r="D234">
+        <v>2001</v>
+      </c>
+      <c r="E234">
+        <v>-0.118165554864629</v>
+      </c>
       <c r="F234" t="s">
         <v>77</v>
       </c>
@@ -10270,6 +10840,12 @@
       <c r="C235" t="s">
         <v>6</v>
       </c>
+      <c r="D235">
+        <v>2002</v>
+      </c>
+      <c r="E235">
+        <v>-0.112369349612677</v>
+      </c>
       <c r="F235" t="s">
         <v>77</v>
       </c>
@@ -10305,6 +10881,12 @@
       <c r="C236" t="s">
         <v>6</v>
       </c>
+      <c r="D236">
+        <v>2003</v>
+      </c>
+      <c r="E236">
+        <v>-0.11996578992597599</v>
+      </c>
       <c r="F236" t="s">
         <v>77</v>
       </c>
@@ -10340,6 +10922,12 @@
       <c r="C237" t="s">
         <v>6</v>
       </c>
+      <c r="D237">
+        <v>2004</v>
+      </c>
+      <c r="E237">
+        <v>-0.145576662951727</v>
+      </c>
       <c r="F237" t="s">
         <v>77</v>
       </c>
@@ -10375,6 +10963,12 @@
       <c r="C238" t="s">
         <v>6</v>
       </c>
+      <c r="D238">
+        <v>2005</v>
+      </c>
+      <c r="E238">
+        <v>-0.14739000797034801</v>
+      </c>
       <c r="F238" t="s">
         <v>77</v>
       </c>
@@ -10410,6 +11004,12 @@
       <c r="C239" t="s">
         <v>6</v>
       </c>
+      <c r="D239">
+        <v>2006</v>
+      </c>
+      <c r="E239">
+        <v>-0.13176427395742099</v>
+      </c>
       <c r="F239" t="s">
         <v>77</v>
       </c>
@@ -10445,6 +11045,12 @@
       <c r="C240" t="s">
         <v>6</v>
       </c>
+      <c r="D240">
+        <v>2007</v>
+      </c>
+      <c r="E240">
+        <v>-0.13993594904047299</v>
+      </c>
       <c r="F240" t="s">
         <v>77</v>
       </c>
@@ -10480,6 +11086,12 @@
       <c r="C241" t="s">
         <v>6</v>
       </c>
+      <c r="D241">
+        <v>2008</v>
+      </c>
+      <c r="E241">
+        <v>-0.15139974722676799</v>
+      </c>
       <c r="F241" t="s">
         <v>77</v>
       </c>
@@ -10515,6 +11127,12 @@
       <c r="C242" t="s">
         <v>6</v>
       </c>
+      <c r="D242">
+        <v>2009</v>
+      </c>
+      <c r="E242">
+        <v>-0.13969163147225599</v>
+      </c>
       <c r="F242" t="s">
         <v>77</v>
       </c>
@@ -10550,6 +11168,12 @@
       <c r="C243" t="s">
         <v>6</v>
       </c>
+      <c r="D243">
+        <v>2010</v>
+      </c>
+      <c r="E243">
+        <v>-0.145485733825574</v>
+      </c>
       <c r="F243" t="s">
         <v>77</v>
       </c>
@@ -10585,6 +11209,12 @@
       <c r="C244" t="s">
         <v>6</v>
       </c>
+      <c r="D244">
+        <v>2011</v>
+      </c>
+      <c r="E244">
+        <v>-0.14153370801176901</v>
+      </c>
       <c r="F244" t="s">
         <v>77</v>
       </c>
@@ -10620,6 +11250,12 @@
       <c r="C245" t="s">
         <v>6</v>
       </c>
+      <c r="D245">
+        <v>2012</v>
+      </c>
+      <c r="E245">
+        <v>-0.153410962150794</v>
+      </c>
       <c r="F245" t="s">
         <v>77</v>
       </c>
@@ -10655,6 +11291,12 @@
       <c r="C246" t="s">
         <v>6</v>
       </c>
+      <c r="D246">
+        <v>2013</v>
+      </c>
+      <c r="E246">
+        <v>-0.12996567988873101</v>
+      </c>
       <c r="F246" t="s">
         <v>77</v>
       </c>
@@ -10690,6 +11332,12 @@
       <c r="C247" t="s">
         <v>6</v>
       </c>
+      <c r="D247">
+        <v>2014</v>
+      </c>
+      <c r="E247">
+        <v>-0.141835533003871</v>
+      </c>
       <c r="F247" t="s">
         <v>77</v>
       </c>
@@ -10725,6 +11373,12 @@
       <c r="C248" t="s">
         <v>6</v>
       </c>
+      <c r="D248">
+        <v>2015</v>
+      </c>
+      <c r="E248">
+        <v>-0.13580463252521</v>
+      </c>
       <c r="F248" t="s">
         <v>77</v>
       </c>
@@ -10760,6 +11414,12 @@
       <c r="C249" t="s">
         <v>6</v>
       </c>
+      <c r="D249">
+        <v>2016</v>
+      </c>
+      <c r="E249">
+        <v>-0.129855360265897</v>
+      </c>
       <c r="F249" t="s">
         <v>77</v>
       </c>
@@ -10795,6 +11455,12 @@
       <c r="C250" t="s">
         <v>6</v>
       </c>
+      <c r="D250">
+        <v>2017</v>
+      </c>
+      <c r="E250">
+        <v>-0.14148636091568301</v>
+      </c>
       <c r="F250" t="s">
         <v>77</v>
       </c>
@@ -10830,6 +11496,12 @@
       <c r="C251" t="s">
         <v>6</v>
       </c>
+      <c r="D251">
+        <v>2018</v>
+      </c>
+      <c r="E251">
+        <v>-0.12989947139034499</v>
+      </c>
       <c r="F251" t="s">
         <v>77</v>
       </c>
@@ -10865,6 +11537,12 @@
       <c r="C252" t="s">
         <v>6</v>
       </c>
+      <c r="D252">
+        <v>2019</v>
+      </c>
+      <c r="E252">
+        <v>-0.13572504614962599</v>
+      </c>
       <c r="F252" t="s">
         <v>77</v>
       </c>
@@ -10900,6 +11578,12 @@
       <c r="C253" t="s">
         <v>6</v>
       </c>
+      <c r="D253">
+        <v>2020</v>
+      </c>
+      <c r="E253">
+        <v>-0.12996879873766601</v>
+      </c>
       <c r="F253" t="s">
         <v>77</v>
       </c>
@@ -10935,6 +11619,12 @@
       <c r="C254" t="s">
         <v>6</v>
       </c>
+      <c r="D254">
+        <v>2021</v>
+      </c>
+      <c r="E254">
+        <v>-0.129819699239411</v>
+      </c>
       <c r="F254" t="s">
         <v>77</v>
       </c>
@@ -10970,6 +11660,12 @@
       <c r="C255" t="s">
         <v>6</v>
       </c>
+      <c r="D255">
+        <v>1999</v>
+      </c>
+      <c r="E255">
+        <v>-0.103024310376972</v>
+      </c>
       <c r="F255" t="s">
         <v>74</v>
       </c>
@@ -11005,6 +11701,12 @@
       <c r="C256" t="s">
         <v>6</v>
       </c>
+      <c r="D256">
+        <v>2000</v>
+      </c>
+      <c r="E256">
+        <v>-0.107898403603873</v>
+      </c>
       <c r="F256" t="s">
         <v>74</v>
       </c>
@@ -11040,6 +11742,12 @@
       <c r="C257" t="s">
         <v>6</v>
       </c>
+      <c r="D257">
+        <v>2001</v>
+      </c>
+      <c r="E257">
+        <v>-0.100088291499159</v>
+      </c>
       <c r="F257" t="s">
         <v>74</v>
       </c>
@@ -11075,6 +11783,12 @@
       <c r="C258" t="s">
         <v>6</v>
       </c>
+      <c r="D258">
+        <v>2002</v>
+      </c>
+      <c r="E258">
+        <v>-9.3278098492320105E-2</v>
+      </c>
       <c r="F258" t="s">
         <v>74</v>
       </c>
@@ -11110,6 +11824,12 @@
       <c r="C259" t="s">
         <v>6</v>
       </c>
+      <c r="D259">
+        <v>2003</v>
+      </c>
+      <c r="E259">
+        <v>-9.7152519452122194E-2</v>
+      </c>
       <c r="F259" t="s">
         <v>74</v>
       </c>
@@ -11145,6 +11865,12 @@
       <c r="C260" t="s">
         <v>6</v>
       </c>
+      <c r="D260">
+        <v>2004</v>
+      </c>
+      <c r="E260">
+        <v>-0.108902732543446</v>
+      </c>
       <c r="F260" t="s">
         <v>74</v>
       </c>
@@ -11180,6 +11906,12 @@
       <c r="C261" t="s">
         <v>6</v>
       </c>
+      <c r="D261">
+        <v>2005</v>
+      </c>
+      <c r="E261">
+        <v>-9.8153608265294401E-2</v>
+      </c>
       <c r="F261" t="s">
         <v>74</v>
       </c>
@@ -11215,6 +11947,12 @@
       <c r="C262" t="s">
         <v>6</v>
       </c>
+      <c r="D262">
+        <v>2006</v>
+      </c>
+      <c r="E262">
+        <v>-9.8654362810280602E-2</v>
+      </c>
       <c r="F262" t="s">
         <v>74</v>
       </c>
@@ -11250,6 +11988,12 @@
       <c r="C263" t="s">
         <v>6</v>
       </c>
+      <c r="D263">
+        <v>2007</v>
+      </c>
+      <c r="E263">
+        <v>-0.120603648768404</v>
+      </c>
       <c r="F263" t="s">
         <v>74</v>
       </c>
@@ -11285,6 +12029,12 @@
       <c r="C264" t="s">
         <v>6</v>
       </c>
+      <c r="D264">
+        <v>2008</v>
+      </c>
+      <c r="E264">
+        <v>-9.8640925744026303E-2</v>
+      </c>
       <c r="F264" t="s">
         <v>74</v>
       </c>
@@ -11320,6 +12070,12 @@
       <c r="C265" t="s">
         <v>6</v>
       </c>
+      <c r="D265">
+        <v>2009</v>
+      </c>
+      <c r="E265">
+        <v>-0.110520728544355</v>
+      </c>
       <c r="F265" t="s">
         <v>74</v>
       </c>
@@ -11355,6 +12111,12 @@
       <c r="C266" t="s">
         <v>6</v>
       </c>
+      <c r="D266">
+        <v>2010</v>
+      </c>
+      <c r="E266">
+        <v>-0.12399371931145101</v>
+      </c>
       <c r="F266" t="s">
         <v>74</v>
       </c>
@@ -11390,6 +12152,12 @@
       <c r="C267" t="s">
         <v>6</v>
       </c>
+      <c r="D267">
+        <v>2011</v>
+      </c>
+      <c r="E267">
+        <v>-0.104454872475764</v>
+      </c>
       <c r="F267" t="s">
         <v>74</v>
       </c>
@@ -11425,6 +12193,12 @@
       <c r="C268" t="s">
         <v>6</v>
       </c>
+      <c r="D268">
+        <v>2012</v>
+      </c>
+      <c r="E268">
+        <v>-9.8114465112108404E-2</v>
+      </c>
       <c r="F268" t="s">
         <v>74</v>
       </c>
@@ -11460,6 +12234,12 @@
       <c r="C269" t="s">
         <v>6</v>
       </c>
+      <c r="D269">
+        <v>2013</v>
+      </c>
+      <c r="E269">
+        <v>-0.116687277125042</v>
+      </c>
       <c r="F269" t="s">
         <v>74</v>
       </c>
@@ -11495,6 +12275,12 @@
       <c r="C270" t="s">
         <v>6</v>
       </c>
+      <c r="D270">
+        <v>2014</v>
+      </c>
+      <c r="E270">
+        <v>-0.104974559475654</v>
+      </c>
       <c r="F270" t="s">
         <v>74</v>
       </c>
@@ -11530,6 +12316,12 @@
       <c r="C271" t="s">
         <v>6</v>
       </c>
+      <c r="D271">
+        <v>2015</v>
+      </c>
+      <c r="E271">
+        <v>-9.6167998394552798E-2</v>
+      </c>
       <c r="F271" t="s">
         <v>74</v>
       </c>
@@ -11565,6 +12357,12 @@
       <c r="C272" t="s">
         <v>6</v>
       </c>
+      <c r="D272">
+        <v>2016</v>
+      </c>
+      <c r="E272">
+        <v>-9.1305139292434806E-2</v>
+      </c>
       <c r="F272" t="s">
         <v>74</v>
       </c>
@@ -11600,6 +12398,12 @@
       <c r="C273" t="s">
         <v>6</v>
       </c>
+      <c r="D273">
+        <v>2017</v>
+      </c>
+      <c r="E273">
+        <v>-0.104013253835956</v>
+      </c>
       <c r="F273" t="s">
         <v>74</v>
       </c>
@@ -11635,6 +12439,12 @@
       <c r="C274" t="s">
         <v>6</v>
       </c>
+      <c r="D274">
+        <v>2018</v>
+      </c>
+      <c r="E274">
+        <v>-0.1059191170285</v>
+      </c>
       <c r="F274" t="s">
         <v>74</v>
       </c>
@@ -11670,6 +12480,12 @@
       <c r="C275" t="s">
         <v>6</v>
       </c>
+      <c r="D275">
+        <v>2019</v>
+      </c>
+      <c r="E275">
+        <v>-0.11477451469956</v>
+      </c>
       <c r="F275" t="s">
         <v>74</v>
       </c>
@@ -11705,6 +12521,12 @@
       <c r="C276" t="s">
         <v>6</v>
       </c>
+      <c r="D276">
+        <v>2020</v>
+      </c>
+      <c r="E276">
+        <v>-0.11767116992299401</v>
+      </c>
       <c r="F276" t="s">
         <v>74</v>
       </c>
@@ -11740,6 +12562,12 @@
       <c r="C277" t="s">
         <v>6</v>
       </c>
+      <c r="D277">
+        <v>2021</v>
+      </c>
+      <c r="E277">
+        <v>-0.104036413674266</v>
+      </c>
       <c r="F277" t="s">
         <v>74</v>
       </c>
@@ -11775,6 +12603,12 @@
       <c r="C278" t="s">
         <v>6</v>
       </c>
+      <c r="D278">
+        <v>1999</v>
+      </c>
+      <c r="E278">
+        <v>-0.116245662438555</v>
+      </c>
       <c r="F278" t="s">
         <v>77</v>
       </c>
@@ -11810,6 +12644,12 @@
       <c r="C279" t="s">
         <v>6</v>
       </c>
+      <c r="D279">
+        <v>2000</v>
+      </c>
+      <c r="E279">
+        <v>-0.124021896437488</v>
+      </c>
       <c r="F279" t="s">
         <v>77</v>
       </c>
@@ -11845,6 +12685,12 @@
       <c r="C280" t="s">
         <v>6</v>
       </c>
+      <c r="D280">
+        <v>2001</v>
+      </c>
+      <c r="E280">
+        <v>-0.12800734793557</v>
+      </c>
       <c r="F280" t="s">
         <v>77</v>
       </c>
@@ -11880,6 +12726,12 @@
       <c r="C281" t="s">
         <v>6</v>
       </c>
+      <c r="D281">
+        <v>2002</v>
+      </c>
+      <c r="E281">
+        <v>-0.116478711743804</v>
+      </c>
       <c r="F281" t="s">
         <v>77</v>
       </c>
@@ -11915,6 +12767,12 @@
       <c r="C282" t="s">
         <v>6</v>
       </c>
+      <c r="D282">
+        <v>2003</v>
+      </c>
+      <c r="E282">
+        <v>-0.121845794238466</v>
+      </c>
       <c r="F282" t="s">
         <v>77</v>
       </c>
@@ -11950,6 +12808,12 @@
       <c r="C283" t="s">
         <v>6</v>
       </c>
+      <c r="D283">
+        <v>2004</v>
+      </c>
+      <c r="E283">
+        <v>-0.14374000170074699</v>
+      </c>
       <c r="F283" t="s">
         <v>77</v>
       </c>
@@ -11985,6 +12849,12 @@
       <c r="C284" t="s">
         <v>6</v>
       </c>
+      <c r="D284">
+        <v>2005</v>
+      </c>
+      <c r="E284">
+        <v>-0.13773898683535901</v>
+      </c>
       <c r="F284" t="s">
         <v>77</v>
       </c>
@@ -12020,6 +12890,12 @@
       <c r="C285" t="s">
         <v>6</v>
       </c>
+      <c r="D285">
+        <v>2006</v>
+      </c>
+      <c r="E285">
+        <v>-0.128145881047976</v>
+      </c>
       <c r="F285" t="s">
         <v>77</v>
       </c>
@@ -12055,6 +12931,12 @@
       <c r="C286" t="s">
         <v>6</v>
       </c>
+      <c r="D286">
+        <v>2007</v>
+      </c>
+      <c r="E286">
+        <v>-0.13372315607448201</v>
+      </c>
       <c r="F286" t="s">
         <v>77</v>
       </c>
@@ -12090,6 +12972,12 @@
       <c r="C287" t="s">
         <v>6</v>
       </c>
+      <c r="D287">
+        <v>2008</v>
+      </c>
+      <c r="E287">
+        <v>-0.13579969873033801</v>
+      </c>
       <c r="F287" t="s">
         <v>77</v>
       </c>
@@ -12125,6 +13013,12 @@
       <c r="C288" t="s">
         <v>6</v>
       </c>
+      <c r="D288">
+        <v>2009</v>
+      </c>
+      <c r="E288">
+        <v>-0.139755888514978</v>
+      </c>
       <c r="F288" t="s">
         <v>77</v>
       </c>
@@ -12160,6 +13054,12 @@
       <c r="C289" t="s">
         <v>6</v>
       </c>
+      <c r="D289">
+        <v>2010</v>
+      </c>
+      <c r="E289">
+        <v>-0.141699768237597</v>
+      </c>
       <c r="F289" t="s">
         <v>77</v>
       </c>
@@ -12195,6 +13095,12 @@
       <c r="C290" t="s">
         <v>6</v>
       </c>
+      <c r="D290">
+        <v>2011</v>
+      </c>
+      <c r="E290">
+        <v>-0.13772565758821301</v>
+      </c>
       <c r="F290" t="s">
         <v>77</v>
       </c>
@@ -12230,6 +13136,12 @@
       <c r="C291" t="s">
         <v>6</v>
       </c>
+      <c r="D291">
+        <v>2012</v>
+      </c>
+      <c r="E291">
+        <v>-0.15180500872736499</v>
+      </c>
       <c r="F291" t="s">
         <v>77</v>
       </c>
@@ -12265,6 +13177,12 @@
       <c r="C292" t="s">
         <v>6</v>
       </c>
+      <c r="D292">
+        <v>2013</v>
+      </c>
+      <c r="E292">
+        <v>-0.12593562141591799</v>
+      </c>
       <c r="F292" t="s">
         <v>77</v>
       </c>
@@ -12300,6 +13218,12 @@
       <c r="C293" t="s">
         <v>6</v>
       </c>
+      <c r="D293">
+        <v>2014</v>
+      </c>
+      <c r="E293">
+        <v>-0.135218700764376</v>
+      </c>
       <c r="F293" t="s">
         <v>77</v>
       </c>
@@ -12335,6 +13259,12 @@
       <c r="C294" t="s">
         <v>6</v>
       </c>
+      <c r="D294">
+        <v>2015</v>
+      </c>
+      <c r="E294">
+        <v>-0.13334574890106601</v>
+      </c>
       <c r="F294" t="s">
         <v>77</v>
       </c>
@@ -12370,6 +13300,12 @@
       <c r="C295" t="s">
         <v>6</v>
       </c>
+      <c r="D295">
+        <v>2016</v>
+      </c>
+      <c r="E295">
+        <v>-0.13033524571555799</v>
+      </c>
       <c r="F295" t="s">
         <v>77</v>
       </c>
@@ -12405,6 +13341,12 @@
       <c r="C296" t="s">
         <v>6</v>
       </c>
+      <c r="D296">
+        <v>2017</v>
+      </c>
+      <c r="E296">
+        <v>-0.14414758986411699</v>
+      </c>
       <c r="F296" t="s">
         <v>77</v>
       </c>
@@ -12440,6 +13382,12 @@
       <c r="C297" t="s">
         <v>6</v>
       </c>
+      <c r="D297">
+        <v>2018</v>
+      </c>
+      <c r="E297">
+        <v>-0.12992576220655999</v>
+      </c>
       <c r="F297" t="s">
         <v>77</v>
       </c>
@@ -12475,6 +13423,12 @@
       <c r="C298" t="s">
         <v>6</v>
       </c>
+      <c r="D298">
+        <v>2019</v>
+      </c>
+      <c r="E298">
+        <v>-0.13421331053662899</v>
+      </c>
       <c r="F298" t="s">
         <v>77</v>
       </c>
@@ -12510,6 +13464,12 @@
       <c r="C299" t="s">
         <v>6</v>
       </c>
+      <c r="D299">
+        <v>2020</v>
+      </c>
+      <c r="E299">
+        <v>-0.12781846949403999</v>
+      </c>
       <c r="F299" t="s">
         <v>77</v>
       </c>
@@ -12545,6 +13505,12 @@
       <c r="C300" t="s">
         <v>6</v>
       </c>
+      <c r="D300">
+        <v>2021</v>
+      </c>
+      <c r="E300">
+        <v>-0.12981515894016099</v>
+      </c>
       <c r="F300" t="s">
         <v>77</v>
       </c>
@@ -12580,6 +13546,12 @@
       <c r="C301" t="s">
         <v>6</v>
       </c>
+      <c r="D301">
+        <v>1999</v>
+      </c>
+      <c r="E301">
+        <v>-9.2875380752175205E-2</v>
+      </c>
       <c r="F301" t="s">
         <v>75</v>
       </c>
@@ -12615,6 +13587,12 @@
       <c r="C302" t="s">
         <v>6</v>
       </c>
+      <c r="D302">
+        <v>2000</v>
+      </c>
+      <c r="E302">
+        <v>-9.0773029647059106E-2</v>
+      </c>
       <c r="F302" t="s">
         <v>75</v>
       </c>
@@ -12650,6 +13628,12 @@
       <c r="C303" t="s">
         <v>6</v>
       </c>
+      <c r="D303">
+        <v>2001</v>
+      </c>
+      <c r="E303">
+        <v>-9.6539692667231294E-2</v>
+      </c>
       <c r="F303" t="s">
         <v>75</v>
       </c>
@@ -12685,6 +13669,12 @@
       <c r="C304" t="s">
         <v>6</v>
       </c>
+      <c r="D304">
+        <v>2002</v>
+      </c>
+      <c r="E304">
+        <v>-9.0799205893971294E-2</v>
+      </c>
       <c r="F304" t="s">
         <v>75</v>
       </c>
@@ -12720,6 +13710,12 @@
       <c r="C305" t="s">
         <v>6</v>
       </c>
+      <c r="D305">
+        <v>2003</v>
+      </c>
+      <c r="E305">
+        <v>-0.100696804021354</v>
+      </c>
       <c r="F305" t="s">
         <v>75</v>
       </c>
@@ -12755,6 +13751,12 @@
       <c r="C306" t="s">
         <v>6</v>
       </c>
+      <c r="D306">
+        <v>2004</v>
+      </c>
+      <c r="E306">
+        <v>-0.10846283359379599</v>
+      </c>
       <c r="F306" t="s">
         <v>75</v>
       </c>
@@ -12790,6 +13792,12 @@
       <c r="C307" t="s">
         <v>6</v>
       </c>
+      <c r="D307">
+        <v>2005</v>
+      </c>
+      <c r="E307">
+        <v>-0.10444773790242</v>
+      </c>
       <c r="F307" t="s">
         <v>75</v>
       </c>
@@ -12825,6 +13833,12 @@
       <c r="C308" t="s">
         <v>6</v>
       </c>
+      <c r="D308">
+        <v>2006</v>
+      </c>
+      <c r="E308">
+        <v>-0.10453338722185</v>
+      </c>
       <c r="F308" t="s">
         <v>75</v>
       </c>
@@ -12860,6 +13874,12 @@
       <c r="C309" t="s">
         <v>6</v>
       </c>
+      <c r="D309">
+        <v>2007</v>
+      </c>
+      <c r="E309">
+        <v>-9.8597068304503294E-2</v>
+      </c>
       <c r="F309" t="s">
         <v>75</v>
       </c>
@@ -12895,6 +13915,12 @@
       <c r="C310" t="s">
         <v>6</v>
       </c>
+      <c r="D310">
+        <v>2008</v>
+      </c>
+      <c r="E310">
+        <v>-0.10839930719425001</v>
+      </c>
       <c r="F310" t="s">
         <v>75</v>
       </c>
@@ -12930,6 +13956,12 @@
       <c r="C311" t="s">
         <v>6</v>
       </c>
+      <c r="D311">
+        <v>2009</v>
+      </c>
+      <c r="E311">
+        <v>-0.100550193368941</v>
+      </c>
       <c r="F311" t="s">
         <v>75</v>
       </c>
@@ -12965,6 +13997,12 @@
       <c r="C312" t="s">
         <v>6</v>
       </c>
+      <c r="D312">
+        <v>2010</v>
+      </c>
+      <c r="E312">
+        <v>-0.10257872608603499</v>
+      </c>
       <c r="F312" t="s">
         <v>75</v>
       </c>
@@ -13000,6 +14038,12 @@
       <c r="C313" t="s">
         <v>6</v>
       </c>
+      <c r="D313">
+        <v>2011</v>
+      </c>
+      <c r="E313">
+        <v>-0.11916911694582299</v>
+      </c>
       <c r="F313" t="s">
         <v>75</v>
       </c>
@@ -13035,6 +14079,12 @@
       <c r="C314" t="s">
         <v>6</v>
       </c>
+      <c r="D314">
+        <v>2012</v>
+      </c>
+      <c r="E314">
+        <v>-0.104526658540568</v>
+      </c>
       <c r="F314" t="s">
         <v>75</v>
       </c>
@@ -13070,6 +14120,12 @@
       <c r="C315" t="s">
         <v>6</v>
       </c>
+      <c r="D315">
+        <v>2013</v>
+      </c>
+      <c r="E315">
+        <v>-9.6786698580918096E-2</v>
+      </c>
       <c r="F315" t="s">
         <v>75</v>
       </c>
@@ -13105,6 +14161,12 @@
       <c r="C316" t="s">
         <v>6</v>
       </c>
+      <c r="D316">
+        <v>2014</v>
+      </c>
+      <c r="E316">
+        <v>-9.6760755761570505E-2</v>
+      </c>
       <c r="F316" t="s">
         <v>75</v>
       </c>
@@ -13140,6 +14202,12 @@
       <c r="C317" t="s">
         <v>6</v>
       </c>
+      <c r="D317">
+        <v>2015</v>
+      </c>
+      <c r="E317">
+        <v>-9.8667592603635307E-2</v>
+      </c>
       <c r="F317" t="s">
         <v>75</v>
       </c>
@@ -13175,6 +14243,12 @@
       <c r="C318" t="s">
         <v>6</v>
       </c>
+      <c r="D318">
+        <v>2016</v>
+      </c>
+      <c r="E318">
+        <v>-9.4587770778986696E-2</v>
+      </c>
       <c r="F318" t="s">
         <v>75</v>
       </c>
@@ -13210,6 +14284,12 @@
       <c r="C319" t="s">
         <v>6</v>
       </c>
+      <c r="D319">
+        <v>2017</v>
+      </c>
+      <c r="E319">
+        <v>-0.11034359689892401</v>
+      </c>
       <c r="F319" t="s">
         <v>75</v>
       </c>
@@ -13245,6 +14325,12 @@
       <c r="C320" t="s">
         <v>6</v>
       </c>
+      <c r="D320">
+        <v>2018</v>
+      </c>
+      <c r="E320">
+        <v>-0.10245783664701399</v>
+      </c>
       <c r="F320" t="s">
         <v>75</v>
       </c>
@@ -13280,6 +14366,12 @@
       <c r="C321" t="s">
         <v>6</v>
       </c>
+      <c r="D321">
+        <v>2019</v>
+      </c>
+      <c r="E321">
+        <v>-8.6962897998755298E-2</v>
+      </c>
       <c r="F321" t="s">
         <v>75</v>
       </c>
@@ -13315,6 +14407,12 @@
       <c r="C322" t="s">
         <v>6</v>
       </c>
+      <c r="D322">
+        <v>2020</v>
+      </c>
+      <c r="E322">
+        <v>-9.8603037116614597E-2</v>
+      </c>
       <c r="F322" t="s">
         <v>75</v>
       </c>
@@ -13350,6 +14448,12 @@
       <c r="C323" t="s">
         <v>6</v>
       </c>
+      <c r="D323">
+        <v>2021</v>
+      </c>
+      <c r="E323">
+        <v>-9.2674171892042495E-2</v>
+      </c>
       <c r="F323" t="s">
         <v>75</v>
       </c>
@@ -13385,6 +14489,12 @@
       <c r="C324" t="s">
         <v>6</v>
       </c>
+      <c r="D324">
+        <v>1999</v>
+      </c>
+      <c r="E324">
+        <v>-6.9362730374295398E-2</v>
+      </c>
       <c r="F324" t="s">
         <v>77</v>
       </c>
@@ -13420,6 +14530,12 @@
       <c r="C325" t="s">
         <v>6</v>
       </c>
+      <c r="D325">
+        <v>2000</v>
+      </c>
+      <c r="E325">
+        <v>-7.3108653586986497E-2</v>
+      </c>
       <c r="F325" t="s">
         <v>77</v>
       </c>
@@ -13455,6 +14571,12 @@
       <c r="C326" t="s">
         <v>6</v>
       </c>
+      <c r="D326">
+        <v>2001</v>
+      </c>
+      <c r="E326">
+        <v>-7.1324032100691701E-2</v>
+      </c>
       <c r="F326" t="s">
         <v>77</v>
       </c>
@@ -13490,6 +14612,12 @@
       <c r="C327" t="s">
         <v>6</v>
       </c>
+      <c r="D327">
+        <v>2002</v>
+      </c>
+      <c r="E327">
+        <v>-6.5413246070240599E-2</v>
+      </c>
       <c r="F327" t="s">
         <v>77</v>
       </c>
@@ -13525,6 +14653,12 @@
       <c r="C328" t="s">
         <v>6</v>
       </c>
+      <c r="D328">
+        <v>2003</v>
+      </c>
+      <c r="E328">
+        <v>-8.10307981485512E-2</v>
+      </c>
       <c r="F328" t="s">
         <v>77</v>
       </c>
@@ -13560,6 +14694,12 @@
       <c r="C329" t="s">
         <v>6</v>
       </c>
+      <c r="D329">
+        <v>2004</v>
+      </c>
+      <c r="E329">
+        <v>-7.9077302386796E-2</v>
+      </c>
       <c r="F329" t="s">
         <v>77</v>
       </c>
@@ -13595,6 +14735,12 @@
       <c r="C330" t="s">
         <v>6</v>
       </c>
+      <c r="D330">
+        <v>2005</v>
+      </c>
+      <c r="E330">
+        <v>-8.1003246856190106E-2</v>
+      </c>
       <c r="F330" t="s">
         <v>77</v>
       </c>
@@ -13630,6 +14776,12 @@
       <c r="C331" t="s">
         <v>6</v>
       </c>
+      <c r="D331">
+        <v>2006</v>
+      </c>
+      <c r="E331">
+        <v>-8.1030980083363999E-2</v>
+      </c>
       <c r="F331" t="s">
         <v>77</v>
       </c>
@@ -13665,6 +14817,12 @@
       <c r="C332" t="s">
         <v>6</v>
       </c>
+      <c r="D332">
+        <v>2007</v>
+      </c>
+      <c r="E332">
+        <v>-7.1268448335076395E-2</v>
+      </c>
       <c r="F332" t="s">
         <v>77</v>
       </c>
@@ -13700,6 +14858,12 @@
       <c r="C333" t="s">
         <v>6</v>
       </c>
+      <c r="D333">
+        <v>2008</v>
+      </c>
+      <c r="E333">
+        <v>-7.3221955559263599E-2</v>
+      </c>
       <c r="F333" t="s">
         <v>77</v>
       </c>
@@ -13735,6 +14899,12 @@
       <c r="C334" t="s">
         <v>6</v>
       </c>
+      <c r="D334">
+        <v>2009</v>
+      </c>
+      <c r="E334">
+        <v>-7.7185578871551003E-2</v>
+      </c>
       <c r="F334" t="s">
         <v>77</v>
       </c>
@@ -13770,6 +14940,12 @@
       <c r="C335" t="s">
         <v>6</v>
       </c>
+      <c r="D335">
+        <v>2010</v>
+      </c>
+      <c r="E335">
+        <v>-7.9148557375370701E-2</v>
+      </c>
       <c r="F335" t="s">
         <v>77</v>
       </c>
@@ -13805,6 +14981,12 @@
       <c r="C336" t="s">
         <v>6</v>
       </c>
+      <c r="D336">
+        <v>2011</v>
+      </c>
+      <c r="E336">
+        <v>-7.5201119250214402E-2</v>
+      </c>
       <c r="F336" t="s">
         <v>77</v>
       </c>
@@ -13840,6 +15022,12 @@
       <c r="C337" t="s">
         <v>6</v>
       </c>
+      <c r="D337">
+        <v>2012</v>
+      </c>
+      <c r="E337">
+        <v>-7.13122802390182E-2</v>
+      </c>
       <c r="F337" t="s">
         <v>77</v>
       </c>
@@ -13875,6 +15063,12 @@
       <c r="C338" t="s">
         <v>6</v>
       </c>
+      <c r="D338">
+        <v>2013</v>
+      </c>
+      <c r="E338">
+        <v>-7.5166977844770305E-2</v>
+      </c>
       <c r="F338" t="s">
         <v>77</v>
       </c>
@@ -13910,6 +15104,12 @@
       <c r="C339" t="s">
         <v>6</v>
       </c>
+      <c r="D339">
+        <v>2014</v>
+      </c>
+      <c r="E339">
+        <v>-8.0995928137107195E-2</v>
+      </c>
       <c r="F339" t="s">
         <v>77</v>
       </c>
@@ -13945,6 +15145,12 @@
       <c r="C340" t="s">
         <v>6</v>
       </c>
+      <c r="D340">
+        <v>2015</v>
+      </c>
+      <c r="E340">
+        <v>-7.5123205242623101E-2</v>
+      </c>
       <c r="F340" t="s">
         <v>77</v>
       </c>
@@ -13980,6 +15186,12 @@
       <c r="C341" t="s">
         <v>6</v>
       </c>
+      <c r="D341">
+        <v>2016</v>
+      </c>
+      <c r="E341">
+        <v>-7.9102863493754602E-2</v>
+      </c>
       <c r="F341" t="s">
         <v>77</v>
       </c>
@@ -14015,6 +15227,12 @@
       <c r="C342" t="s">
         <v>6</v>
       </c>
+      <c r="D342">
+        <v>2017</v>
+      </c>
+      <c r="E342">
+        <v>-7.3172526296126306E-2</v>
+      </c>
       <c r="F342" t="s">
         <v>77</v>
       </c>
@@ -14050,6 +15268,12 @@
       <c r="C343" t="s">
         <v>6</v>
       </c>
+      <c r="D343">
+        <v>2018</v>
+      </c>
+      <c r="E343">
+        <v>-7.5192102511495607E-2</v>
+      </c>
       <c r="F343" t="s">
         <v>77</v>
       </c>
@@ -14085,6 +15309,12 @@
       <c r="C344" t="s">
         <v>6</v>
       </c>
+      <c r="D344">
+        <v>2019</v>
+      </c>
+      <c r="E344">
+        <v>-7.5234326074674507E-2</v>
+      </c>
       <c r="F344" t="s">
         <v>77</v>
       </c>
@@ -14120,6 +15350,12 @@
       <c r="C345" t="s">
         <v>6</v>
       </c>
+      <c r="D345">
+        <v>2020</v>
+      </c>
+      <c r="E345">
+        <v>-7.3329343445437803E-2</v>
+      </c>
       <c r="F345" t="s">
         <v>77</v>
       </c>
@@ -14154,6 +15390,12 @@
       </c>
       <c r="C346" t="s">
         <v>6</v>
+      </c>
+      <c r="D346">
+        <v>2021</v>
+      </c>
+      <c r="E346">
+        <v>-6.9315128017360797E-2</v>
       </c>
       <c r="F346" t="s">
         <v>77</v>
